--- a/annotations/data.xlsx
+++ b/annotations/data.xlsx
@@ -4,7 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Raw data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Proportions" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Coding guide Q1,Q2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Coding guide-Q3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Proportions" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="1216">
   <si>
     <t>Q1</t>
   </si>
@@ -3509,6 +3511,112 @@
     <t>perfect ,django ,status ,django-views</t>
   </si>
   <si>
+    <t>Tag used as intended in tag description</t>
+  </si>
+  <si>
+    <t>Choose from the dropdown list (Yes/No). 
+1) Consider the surrounding words to determine the tag is used as intended. 
+2) If the tag has no description select No.
+3) If No do not answer the rest of the questions. 
+4) No for file paths, URLs (parts), package names</t>
+  </si>
+  <si>
+    <t>Tag overlap</t>
+  </si>
+  <si>
+    <t>Choose from the dropdown list (Yes/No). Follow the figure below.</t>
+  </si>
+  <si>
+    <t>Category/Code</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Suggests an API/library/framework to use to directly solve the question at hand (Only use solution code if the tag itself is the solution).</t>
+  </si>
+  <si>
+    <t>Suggests using a specific programming language to directly solve the question at hand (Only use solution code if the tag itself is the solution).</t>
+  </si>
+  <si>
+    <t>Providing a solution based on own experience (Doesn't necessarily says another solution doesn't exist. Only use solution code if the tag itself is the solution.)</t>
+  </si>
+  <si>
+    <t>Proposes a direct solution to the question at hand (Only use solution code if the tag itself is the solution)</t>
+  </si>
+  <si>
+    <t>1. Use this code for solutions that covers different angles (for example, questions related data validation in web apps can have client side solutions or server side solutions). If that is the case each option/angle should contain a solution instead of a simple discussion.</t>
+  </si>
+  <si>
+    <t>2. Use this code for solutions that covers different tools/IDEs (i.e. not API/library/framework/programming language).</t>
+  </si>
+  <si>
+    <t>The given answer or part of the answer only holds if someone is using a specific programming language (Only use solution code if the tag itself is the solution. Condition has to be very explicit instead of once experience.)</t>
+  </si>
+  <si>
+    <t>The given answer or part of the answer only holds for a specific version; this version could be related to PL, technology, library, framework. Thus, this supersedes the other two solution categories if a version is mentioned (Only use solution code if the tag itself is the solution. Condition has to be very explicit instead of once experience.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given answer or part of the answer only holds in a specific technical environment, can include operating system, browser, technology stack etc. (Only use solution code if the tag itself is the solution. Condition has to be very explicit instead of once experience.) </t>
+  </si>
+  <si>
+    <t>1. Use this code for solution condition environments such as operating systems, browser, IDE, technology stack etc.</t>
+  </si>
+  <si>
+    <t>2. Don't use this code for suggestions.</t>
+  </si>
+  <si>
+    <t>The given answer or part of the answer only works under specific conditions and these conditions do not match any of the above (Only use solution code if the tag itself is the solution. Condition has to be very explicit instead of once experience.)</t>
+  </si>
+  <si>
+    <t>technical explanations and discussion</t>
+  </si>
+  <si>
+    <t>These are explanations that describe a solution, discuss pros/cons, or elaborate on details etc</t>
+  </si>
+  <si>
+    <t>1. Only use this code if the tag is found in an answer sentence or in an answer comment that describe the solution, discuss pros/cons, elaborate on details etc.</t>
+  </si>
+  <si>
+    <t>2. If the sentence is a comment, the descriptions/discussion/elaboration should not due to a request made in another comment. Use the code 'clarify question/answer details' for those cases.</t>
+  </si>
+  <si>
+    <t>external reference</t>
+  </si>
+  <si>
+    <t>References to external urls, documentation, other answers etc</t>
+  </si>
+  <si>
+    <t>The tag should be a part of the reference/hyperlink. If the tag is used in a description before or after the reference, use a different appropreate code. E.g. Here is a link to do X: stackoverflow_link. If X is the tag, and it is not included in the actual link, don't use this code.</t>
+  </si>
+  <si>
+    <t>clarify question/answer details</t>
+  </si>
+  <si>
+    <t>These are sentences that clarify what the question wants or what an answer means</t>
+  </si>
+  <si>
+    <t>1. Use this code if the tag is found in a sentence of a comment that answers a question asked before (possibly in a previous comment).</t>
+  </si>
+  <si>
+    <t>2. Use this code if the tag is found in a sentence of a question comment that seek further information from the OP or that provides further information that is not available in the question body.</t>
+  </si>
+  <si>
+    <t>3. Use this code for answers that does not provide a solution, but clarifies.</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trivial encompasses things that are too generic and/or essential.  </t>
+  </si>
+  <si>
+    <t>For example, one cannot describe Django solution without using 'server-side' in certain contexts.</t>
+  </si>
+  <si>
+    <t>Anything that doesn't fall into the above</t>
+  </si>
+  <si>
     <t>Processed</t>
   </si>
   <si>
@@ -3558,51 +3666,6 @@
   </si>
   <si>
     <t>Regex</t>
-  </si>
-  <si>
-    <t>With additional context</t>
-  </si>
-  <si>
-    <t>No additional context</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>Answer comments</t>
-  </si>
-  <si>
-    <t>Question comments</t>
-  </si>
-  <si>
-    <t>Necessary technical explanation or resource</t>
-  </si>
-  <si>
-    <t>Solution - suggest API/library/framework</t>
-  </si>
-  <si>
-    <t>Solution condition - version</t>
-  </si>
-  <si>
-    <t>Solution - own experience</t>
-  </si>
-  <si>
-    <t>Solution - other</t>
-  </si>
-  <si>
-    <t>Solution condition - envirionment</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Solution condition - programming language</t>
-  </si>
-  <si>
-    <t>Solution suggest - programming language</t>
-  </si>
-  <si>
-    <t>Solution condition - other</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3676,7 @@
     <numFmt numFmtId="164" formatCode="mm-dd-yy"/>
     <numFmt numFmtId="165" formatCode="m-d-yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3637,6 +3700,16 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -3670,7 +3743,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3724,14 +3797,47 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3851,11 +3957,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1653544378"/>
-        <c:axId val="1126956731"/>
+        <c:axId val="2093368148"/>
+        <c:axId val="660762014"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1653544378"/>
+        <c:axId val="2093368148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,10 +4013,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126956731"/>
+        <c:crossAx val="660762014"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1126956731"/>
+        <c:axId val="660762014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +4091,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653544378"/>
+        <c:crossAx val="2093368148"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4154,702 +4260,48 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="666666"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="EFEFEF"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr lvl="0">
-                    <a:defRPr sz="1800"/>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr lvl="0">
-                    <a:defRPr sz="1800"/>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr lvl="0">
-                    <a:defRPr sz="1800"/>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Proportions!$M$5:$M$7</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Proportions!$P$5:$P$7</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Proportions!$O$4</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="666666"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Proportions!$M$5:$M$8</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Proportions!$O$5:$O$8</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Proportions!$P$4</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B7B7B7"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Proportions!$M$5:$M$8</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Proportions!$P$5:$P$8</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1171974512"/>
-        <c:axId val="2126718641"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1171974512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1800">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2126718641"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2126718641"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="1800">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1800">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Number of sentences</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1800">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1171974512"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" sz="1800">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Proportions!$O$50</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="666666"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Proportions!$N$51:$N$54</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Proportions!$O$51:$O$54</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Proportions!$P$50</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="CCCCCC"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Proportions!$N$51:$N$54</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Proportions!$P$51:$P$54</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="598079585"/>
-        <c:axId val="1018391972"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="598079585"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1018391972"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1018391972"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="598079585"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4362450" cy="2590800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4896,81 +4348,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43320,42 +42697,4187 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="5">
+      <c r="B5" s="21" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="23" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="24.86"/>
+    <col customWidth="1" min="4" max="4" width="135.57"/>
+    <col customWidth="1" min="12" max="13" width="20.29"/>
+    <col customWidth="1" min="14" max="14" width="70.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
     <row r="4">
-      <c r="N4" s="21" t="s">
-        <v>1165</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>1166</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>1167</v>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="25" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="30" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="30" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="30" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="30" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="30" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="30" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="30" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="30" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="30" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="30" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="30" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32">
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33">
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34">
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35">
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36">
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37">
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38">
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39">
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40">
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41">
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42">
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43">
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44">
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45">
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46">
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47">
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48">
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49">
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50">
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51">
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52">
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53">
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54">
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55">
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56">
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57">
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+    </row>
+    <row r="58">
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+    </row>
+    <row r="59">
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60">
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61">
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+    </row>
+    <row r="62">
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63">
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64">
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65">
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+    </row>
+    <row r="66">
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67">
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+    </row>
+    <row r="68">
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+    </row>
+    <row r="69">
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70">
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71">
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73">
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74">
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75">
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76">
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77">
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78">
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79">
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80">
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81">
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82">
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83">
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84">
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85">
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+    </row>
+    <row r="86">
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+    </row>
+    <row r="87">
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+    </row>
+    <row r="88">
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+    </row>
+    <row r="89">
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+    </row>
+    <row r="90">
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+    </row>
+    <row r="91">
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+    </row>
+    <row r="92">
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+    </row>
+    <row r="93">
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+    </row>
+    <row r="94">
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95">
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96">
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+    </row>
+    <row r="97">
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+    </row>
+    <row r="98">
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+    </row>
+    <row r="99">
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+    </row>
+    <row r="100">
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+    </row>
+    <row r="101">
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+    </row>
+    <row r="102">
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+    </row>
+    <row r="103">
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+    </row>
+    <row r="104">
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+    </row>
+    <row r="105">
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+    </row>
+    <row r="106">
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+    </row>
+    <row r="107">
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+    </row>
+    <row r="108">
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+    </row>
+    <row r="109">
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+    </row>
+    <row r="110">
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+    </row>
+    <row r="111">
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+    </row>
+    <row r="112">
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+    </row>
+    <row r="113">
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+    </row>
+    <row r="114">
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+    </row>
+    <row r="115">
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+    </row>
+    <row r="116">
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+    </row>
+    <row r="117">
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+    </row>
+    <row r="118">
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+    </row>
+    <row r="119">
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+    </row>
+    <row r="120">
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121">
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+    </row>
+    <row r="122">
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+    </row>
+    <row r="123">
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+    </row>
+    <row r="124">
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+    </row>
+    <row r="125">
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+    </row>
+    <row r="126">
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+    </row>
+    <row r="127">
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+    </row>
+    <row r="128">
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+    </row>
+    <row r="129">
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+    </row>
+    <row r="130">
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+    </row>
+    <row r="131">
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+    </row>
+    <row r="132">
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+    </row>
+    <row r="133">
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+    </row>
+    <row r="134">
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+    </row>
+    <row r="135">
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+    </row>
+    <row r="136">
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+    </row>
+    <row r="137">
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+    </row>
+    <row r="138">
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+    </row>
+    <row r="139">
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+    </row>
+    <row r="140">
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+    </row>
+    <row r="141">
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+    </row>
+    <row r="142">
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+    </row>
+    <row r="143">
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+    </row>
+    <row r="144">
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
+    </row>
+    <row r="145">
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+    </row>
+    <row r="146">
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+    </row>
+    <row r="147">
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+    </row>
+    <row r="148">
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+    </row>
+    <row r="149">
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+    </row>
+    <row r="150">
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+    </row>
+    <row r="151">
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
+    </row>
+    <row r="152">
+      <c r="L152" s="24"/>
+      <c r="M152" s="24"/>
+    </row>
+    <row r="153">
+      <c r="L153" s="24"/>
+      <c r="M153" s="24"/>
+    </row>
+    <row r="154">
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+    </row>
+    <row r="155">
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
+    </row>
+    <row r="156">
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
+    </row>
+    <row r="157">
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+    </row>
+    <row r="158">
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+    </row>
+    <row r="159">
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+    </row>
+    <row r="160">
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+    </row>
+    <row r="161">
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+    </row>
+    <row r="162">
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+    </row>
+    <row r="163">
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+    </row>
+    <row r="164">
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+    </row>
+    <row r="165">
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+    </row>
+    <row r="166">
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+    </row>
+    <row r="167">
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+    </row>
+    <row r="168">
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+    </row>
+    <row r="169">
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+    </row>
+    <row r="170">
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+    </row>
+    <row r="171">
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+    </row>
+    <row r="172">
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+    </row>
+    <row r="173">
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+    </row>
+    <row r="174">
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+    </row>
+    <row r="175">
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+    </row>
+    <row r="176">
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+    </row>
+    <row r="177">
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+    </row>
+    <row r="178">
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+    </row>
+    <row r="179">
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+    </row>
+    <row r="180">
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+    </row>
+    <row r="181">
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+    </row>
+    <row r="182">
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+    </row>
+    <row r="183">
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
+    </row>
+    <row r="184">
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
+    </row>
+    <row r="185">
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
+    </row>
+    <row r="186">
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
+    </row>
+    <row r="187">
+      <c r="L187" s="24"/>
+      <c r="M187" s="24"/>
+    </row>
+    <row r="188">
+      <c r="L188" s="24"/>
+      <c r="M188" s="24"/>
+    </row>
+    <row r="189">
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
+    </row>
+    <row r="190">
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
+    </row>
+    <row r="191">
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+    </row>
+    <row r="192">
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+    </row>
+    <row r="193">
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
+    </row>
+    <row r="194">
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
+    </row>
+    <row r="195">
+      <c r="L195" s="24"/>
+      <c r="M195" s="24"/>
+    </row>
+    <row r="196">
+      <c r="L196" s="24"/>
+      <c r="M196" s="24"/>
+    </row>
+    <row r="197">
+      <c r="L197" s="24"/>
+      <c r="M197" s="24"/>
+    </row>
+    <row r="198">
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
+    </row>
+    <row r="199">
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+    </row>
+    <row r="200">
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
+    </row>
+    <row r="201">
+      <c r="L201" s="24"/>
+      <c r="M201" s="24"/>
+    </row>
+    <row r="202">
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+    </row>
+    <row r="203">
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+    </row>
+    <row r="204">
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
+    </row>
+    <row r="205">
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+    </row>
+    <row r="206">
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+    </row>
+    <row r="207">
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+    </row>
+    <row r="208">
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
+    </row>
+    <row r="209">
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
+    </row>
+    <row r="210">
+      <c r="L210" s="24"/>
+      <c r="M210" s="24"/>
+    </row>
+    <row r="211">
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+    </row>
+    <row r="212">
+      <c r="L212" s="24"/>
+      <c r="M212" s="24"/>
+    </row>
+    <row r="213">
+      <c r="L213" s="24"/>
+      <c r="M213" s="24"/>
+    </row>
+    <row r="214">
+      <c r="L214" s="24"/>
+      <c r="M214" s="24"/>
+    </row>
+    <row r="215">
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+    </row>
+    <row r="216">
+      <c r="L216" s="24"/>
+      <c r="M216" s="24"/>
+    </row>
+    <row r="217">
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+    </row>
+    <row r="218">
+      <c r="L218" s="24"/>
+      <c r="M218" s="24"/>
+    </row>
+    <row r="219">
+      <c r="L219" s="24"/>
+      <c r="M219" s="24"/>
+    </row>
+    <row r="220">
+      <c r="L220" s="24"/>
+      <c r="M220" s="24"/>
+    </row>
+    <row r="221">
+      <c r="L221" s="24"/>
+      <c r="M221" s="24"/>
+    </row>
+    <row r="222">
+      <c r="L222" s="24"/>
+      <c r="M222" s="24"/>
+    </row>
+    <row r="223">
+      <c r="L223" s="24"/>
+      <c r="M223" s="24"/>
+    </row>
+    <row r="224">
+      <c r="L224" s="24"/>
+      <c r="M224" s="24"/>
+    </row>
+    <row r="225">
+      <c r="L225" s="24"/>
+      <c r="M225" s="24"/>
+    </row>
+    <row r="226">
+      <c r="L226" s="24"/>
+      <c r="M226" s="24"/>
+    </row>
+    <row r="227">
+      <c r="L227" s="24"/>
+      <c r="M227" s="24"/>
+    </row>
+    <row r="228">
+      <c r="L228" s="24"/>
+      <c r="M228" s="24"/>
+    </row>
+    <row r="229">
+      <c r="L229" s="24"/>
+      <c r="M229" s="24"/>
+    </row>
+    <row r="230">
+      <c r="L230" s="24"/>
+      <c r="M230" s="24"/>
+    </row>
+    <row r="231">
+      <c r="L231" s="24"/>
+      <c r="M231" s="24"/>
+    </row>
+    <row r="232">
+      <c r="L232" s="24"/>
+      <c r="M232" s="24"/>
+    </row>
+    <row r="233">
+      <c r="L233" s="24"/>
+      <c r="M233" s="24"/>
+    </row>
+    <row r="234">
+      <c r="L234" s="24"/>
+      <c r="M234" s="24"/>
+    </row>
+    <row r="235">
+      <c r="L235" s="24"/>
+      <c r="M235" s="24"/>
+    </row>
+    <row r="236">
+      <c r="L236" s="24"/>
+      <c r="M236" s="24"/>
+    </row>
+    <row r="237">
+      <c r="L237" s="24"/>
+      <c r="M237" s="24"/>
+    </row>
+    <row r="238">
+      <c r="L238" s="24"/>
+      <c r="M238" s="24"/>
+    </row>
+    <row r="239">
+      <c r="L239" s="24"/>
+      <c r="M239" s="24"/>
+    </row>
+    <row r="240">
+      <c r="L240" s="24"/>
+      <c r="M240" s="24"/>
+    </row>
+    <row r="241">
+      <c r="L241" s="24"/>
+      <c r="M241" s="24"/>
+    </row>
+    <row r="242">
+      <c r="L242" s="24"/>
+      <c r="M242" s="24"/>
+    </row>
+    <row r="243">
+      <c r="L243" s="24"/>
+      <c r="M243" s="24"/>
+    </row>
+    <row r="244">
+      <c r="L244" s="24"/>
+      <c r="M244" s="24"/>
+    </row>
+    <row r="245">
+      <c r="L245" s="24"/>
+      <c r="M245" s="24"/>
+    </row>
+    <row r="246">
+      <c r="L246" s="24"/>
+      <c r="M246" s="24"/>
+    </row>
+    <row r="247">
+      <c r="L247" s="24"/>
+      <c r="M247" s="24"/>
+    </row>
+    <row r="248">
+      <c r="L248" s="24"/>
+      <c r="M248" s="24"/>
+    </row>
+    <row r="249">
+      <c r="L249" s="24"/>
+      <c r="M249" s="24"/>
+    </row>
+    <row r="250">
+      <c r="L250" s="24"/>
+      <c r="M250" s="24"/>
+    </row>
+    <row r="251">
+      <c r="L251" s="24"/>
+      <c r="M251" s="24"/>
+    </row>
+    <row r="252">
+      <c r="L252" s="24"/>
+      <c r="M252" s="24"/>
+    </row>
+    <row r="253">
+      <c r="L253" s="24"/>
+      <c r="M253" s="24"/>
+    </row>
+    <row r="254">
+      <c r="L254" s="24"/>
+      <c r="M254" s="24"/>
+    </row>
+    <row r="255">
+      <c r="L255" s="24"/>
+      <c r="M255" s="24"/>
+    </row>
+    <row r="256">
+      <c r="L256" s="24"/>
+      <c r="M256" s="24"/>
+    </row>
+    <row r="257">
+      <c r="L257" s="24"/>
+      <c r="M257" s="24"/>
+    </row>
+    <row r="258">
+      <c r="L258" s="24"/>
+      <c r="M258" s="24"/>
+    </row>
+    <row r="259">
+      <c r="L259" s="24"/>
+      <c r="M259" s="24"/>
+    </row>
+    <row r="260">
+      <c r="L260" s="24"/>
+      <c r="M260" s="24"/>
+    </row>
+    <row r="261">
+      <c r="L261" s="24"/>
+      <c r="M261" s="24"/>
+    </row>
+    <row r="262">
+      <c r="L262" s="24"/>
+      <c r="M262" s="24"/>
+    </row>
+    <row r="263">
+      <c r="L263" s="24"/>
+      <c r="M263" s="24"/>
+    </row>
+    <row r="264">
+      <c r="L264" s="24"/>
+      <c r="M264" s="24"/>
+    </row>
+    <row r="265">
+      <c r="L265" s="24"/>
+      <c r="M265" s="24"/>
+    </row>
+    <row r="266">
+      <c r="L266" s="24"/>
+      <c r="M266" s="24"/>
+    </row>
+    <row r="267">
+      <c r="L267" s="24"/>
+      <c r="M267" s="24"/>
+    </row>
+    <row r="268">
+      <c r="L268" s="24"/>
+      <c r="M268" s="24"/>
+    </row>
+    <row r="269">
+      <c r="L269" s="24"/>
+      <c r="M269" s="24"/>
+    </row>
+    <row r="270">
+      <c r="L270" s="24"/>
+      <c r="M270" s="24"/>
+    </row>
+    <row r="271">
+      <c r="L271" s="24"/>
+      <c r="M271" s="24"/>
+    </row>
+    <row r="272">
+      <c r="L272" s="24"/>
+      <c r="M272" s="24"/>
+    </row>
+    <row r="273">
+      <c r="L273" s="24"/>
+      <c r="M273" s="24"/>
+    </row>
+    <row r="274">
+      <c r="L274" s="24"/>
+      <c r="M274" s="24"/>
+    </row>
+    <row r="275">
+      <c r="L275" s="24"/>
+      <c r="M275" s="24"/>
+    </row>
+    <row r="276">
+      <c r="L276" s="24"/>
+      <c r="M276" s="24"/>
+    </row>
+    <row r="277">
+      <c r="L277" s="24"/>
+      <c r="M277" s="24"/>
+    </row>
+    <row r="278">
+      <c r="L278" s="24"/>
+      <c r="M278" s="24"/>
+    </row>
+    <row r="279">
+      <c r="L279" s="24"/>
+      <c r="M279" s="24"/>
+    </row>
+    <row r="280">
+      <c r="L280" s="24"/>
+      <c r="M280" s="24"/>
+    </row>
+    <row r="281">
+      <c r="L281" s="24"/>
+      <c r="M281" s="24"/>
+    </row>
+    <row r="282">
+      <c r="L282" s="24"/>
+      <c r="M282" s="24"/>
+    </row>
+    <row r="283">
+      <c r="L283" s="24"/>
+      <c r="M283" s="24"/>
+    </row>
+    <row r="284">
+      <c r="L284" s="24"/>
+      <c r="M284" s="24"/>
+    </row>
+    <row r="285">
+      <c r="L285" s="24"/>
+      <c r="M285" s="24"/>
+    </row>
+    <row r="286">
+      <c r="L286" s="24"/>
+      <c r="M286" s="24"/>
+    </row>
+    <row r="287">
+      <c r="L287" s="24"/>
+      <c r="M287" s="24"/>
+    </row>
+    <row r="288">
+      <c r="L288" s="24"/>
+      <c r="M288" s="24"/>
+    </row>
+    <row r="289">
+      <c r="L289" s="24"/>
+      <c r="M289" s="24"/>
+    </row>
+    <row r="290">
+      <c r="L290" s="24"/>
+      <c r="M290" s="24"/>
+    </row>
+    <row r="291">
+      <c r="L291" s="24"/>
+      <c r="M291" s="24"/>
+    </row>
+    <row r="292">
+      <c r="L292" s="24"/>
+      <c r="M292" s="24"/>
+    </row>
+    <row r="293">
+      <c r="L293" s="24"/>
+      <c r="M293" s="24"/>
+    </row>
+    <row r="294">
+      <c r="L294" s="24"/>
+      <c r="M294" s="24"/>
+    </row>
+    <row r="295">
+      <c r="L295" s="24"/>
+      <c r="M295" s="24"/>
+    </row>
+    <row r="296">
+      <c r="L296" s="24"/>
+      <c r="M296" s="24"/>
+    </row>
+    <row r="297">
+      <c r="L297" s="24"/>
+      <c r="M297" s="24"/>
+    </row>
+    <row r="298">
+      <c r="L298" s="24"/>
+      <c r="M298" s="24"/>
+    </row>
+    <row r="299">
+      <c r="L299" s="24"/>
+      <c r="M299" s="24"/>
+    </row>
+    <row r="300">
+      <c r="L300" s="24"/>
+      <c r="M300" s="24"/>
+    </row>
+    <row r="301">
+      <c r="L301" s="24"/>
+      <c r="M301" s="24"/>
+    </row>
+    <row r="302">
+      <c r="L302" s="24"/>
+      <c r="M302" s="24"/>
+    </row>
+    <row r="303">
+      <c r="L303" s="24"/>
+      <c r="M303" s="24"/>
+    </row>
+    <row r="304">
+      <c r="L304" s="24"/>
+      <c r="M304" s="24"/>
+    </row>
+    <row r="305">
+      <c r="L305" s="24"/>
+      <c r="M305" s="24"/>
+    </row>
+    <row r="306">
+      <c r="L306" s="24"/>
+      <c r="M306" s="24"/>
+    </row>
+    <row r="307">
+      <c r="L307" s="24"/>
+      <c r="M307" s="24"/>
+    </row>
+    <row r="308">
+      <c r="L308" s="24"/>
+      <c r="M308" s="24"/>
+    </row>
+    <row r="309">
+      <c r="L309" s="24"/>
+      <c r="M309" s="24"/>
+    </row>
+    <row r="310">
+      <c r="L310" s="24"/>
+      <c r="M310" s="24"/>
+    </row>
+    <row r="311">
+      <c r="L311" s="24"/>
+      <c r="M311" s="24"/>
+    </row>
+    <row r="312">
+      <c r="L312" s="24"/>
+      <c r="M312" s="24"/>
+    </row>
+    <row r="313">
+      <c r="L313" s="24"/>
+      <c r="M313" s="24"/>
+    </row>
+    <row r="314">
+      <c r="L314" s="24"/>
+      <c r="M314" s="24"/>
+    </row>
+    <row r="315">
+      <c r="L315" s="24"/>
+      <c r="M315" s="24"/>
+    </row>
+    <row r="316">
+      <c r="L316" s="24"/>
+      <c r="M316" s="24"/>
+    </row>
+    <row r="317">
+      <c r="L317" s="24"/>
+      <c r="M317" s="24"/>
+    </row>
+    <row r="318">
+      <c r="L318" s="24"/>
+      <c r="M318" s="24"/>
+    </row>
+    <row r="319">
+      <c r="L319" s="24"/>
+      <c r="M319" s="24"/>
+    </row>
+    <row r="320">
+      <c r="L320" s="24"/>
+      <c r="M320" s="24"/>
+    </row>
+    <row r="321">
+      <c r="L321" s="24"/>
+      <c r="M321" s="24"/>
+    </row>
+    <row r="322">
+      <c r="L322" s="24"/>
+      <c r="M322" s="24"/>
+    </row>
+    <row r="323">
+      <c r="L323" s="24"/>
+      <c r="M323" s="24"/>
+    </row>
+    <row r="324">
+      <c r="L324" s="24"/>
+      <c r="M324" s="24"/>
+    </row>
+    <row r="325">
+      <c r="L325" s="24"/>
+      <c r="M325" s="24"/>
+    </row>
+    <row r="326">
+      <c r="L326" s="24"/>
+      <c r="M326" s="24"/>
+    </row>
+    <row r="327">
+      <c r="L327" s="24"/>
+      <c r="M327" s="24"/>
+    </row>
+    <row r="328">
+      <c r="L328" s="24"/>
+      <c r="M328" s="24"/>
+    </row>
+    <row r="329">
+      <c r="L329" s="24"/>
+      <c r="M329" s="24"/>
+    </row>
+    <row r="330">
+      <c r="L330" s="24"/>
+      <c r="M330" s="24"/>
+    </row>
+    <row r="331">
+      <c r="L331" s="24"/>
+      <c r="M331" s="24"/>
+    </row>
+    <row r="332">
+      <c r="L332" s="24"/>
+      <c r="M332" s="24"/>
+    </row>
+    <row r="333">
+      <c r="L333" s="24"/>
+      <c r="M333" s="24"/>
+    </row>
+    <row r="334">
+      <c r="L334" s="24"/>
+      <c r="M334" s="24"/>
+    </row>
+    <row r="335">
+      <c r="L335" s="24"/>
+      <c r="M335" s="24"/>
+    </row>
+    <row r="336">
+      <c r="L336" s="24"/>
+      <c r="M336" s="24"/>
+    </row>
+    <row r="337">
+      <c r="L337" s="24"/>
+      <c r="M337" s="24"/>
+    </row>
+    <row r="338">
+      <c r="L338" s="24"/>
+      <c r="M338" s="24"/>
+    </row>
+    <row r="339">
+      <c r="L339" s="24"/>
+      <c r="M339" s="24"/>
+    </row>
+    <row r="340">
+      <c r="L340" s="24"/>
+      <c r="M340" s="24"/>
+    </row>
+    <row r="341">
+      <c r="L341" s="24"/>
+      <c r="M341" s="24"/>
+    </row>
+    <row r="342">
+      <c r="L342" s="24"/>
+      <c r="M342" s="24"/>
+    </row>
+    <row r="343">
+      <c r="L343" s="24"/>
+      <c r="M343" s="24"/>
+    </row>
+    <row r="344">
+      <c r="L344" s="24"/>
+      <c r="M344" s="24"/>
+    </row>
+    <row r="345">
+      <c r="L345" s="24"/>
+      <c r="M345" s="24"/>
+    </row>
+    <row r="346">
+      <c r="L346" s="24"/>
+      <c r="M346" s="24"/>
+    </row>
+    <row r="347">
+      <c r="L347" s="24"/>
+      <c r="M347" s="24"/>
+    </row>
+    <row r="348">
+      <c r="L348" s="24"/>
+      <c r="M348" s="24"/>
+    </row>
+    <row r="349">
+      <c r="L349" s="24"/>
+      <c r="M349" s="24"/>
+    </row>
+    <row r="350">
+      <c r="L350" s="24"/>
+      <c r="M350" s="24"/>
+    </row>
+    <row r="351">
+      <c r="L351" s="24"/>
+      <c r="M351" s="24"/>
+    </row>
+    <row r="352">
+      <c r="L352" s="24"/>
+      <c r="M352" s="24"/>
+    </row>
+    <row r="353">
+      <c r="L353" s="24"/>
+      <c r="M353" s="24"/>
+    </row>
+    <row r="354">
+      <c r="L354" s="24"/>
+      <c r="M354" s="24"/>
+    </row>
+    <row r="355">
+      <c r="L355" s="24"/>
+      <c r="M355" s="24"/>
+    </row>
+    <row r="356">
+      <c r="L356" s="24"/>
+      <c r="M356" s="24"/>
+    </row>
+    <row r="357">
+      <c r="L357" s="24"/>
+      <c r="M357" s="24"/>
+    </row>
+    <row r="358">
+      <c r="L358" s="24"/>
+      <c r="M358" s="24"/>
+    </row>
+    <row r="359">
+      <c r="L359" s="24"/>
+      <c r="M359" s="24"/>
+    </row>
+    <row r="360">
+      <c r="L360" s="24"/>
+      <c r="M360" s="24"/>
+    </row>
+    <row r="361">
+      <c r="L361" s="24"/>
+      <c r="M361" s="24"/>
+    </row>
+    <row r="362">
+      <c r="L362" s="24"/>
+      <c r="M362" s="24"/>
+    </row>
+    <row r="363">
+      <c r="L363" s="24"/>
+      <c r="M363" s="24"/>
+    </row>
+    <row r="364">
+      <c r="L364" s="24"/>
+      <c r="M364" s="24"/>
+    </row>
+    <row r="365">
+      <c r="L365" s="24"/>
+      <c r="M365" s="24"/>
+    </row>
+    <row r="366">
+      <c r="L366" s="24"/>
+      <c r="M366" s="24"/>
+    </row>
+    <row r="367">
+      <c r="L367" s="24"/>
+      <c r="M367" s="24"/>
+    </row>
+    <row r="368">
+      <c r="L368" s="24"/>
+      <c r="M368" s="24"/>
+    </row>
+    <row r="369">
+      <c r="L369" s="24"/>
+      <c r="M369" s="24"/>
+    </row>
+    <row r="370">
+      <c r="L370" s="24"/>
+      <c r="M370" s="24"/>
+    </row>
+    <row r="371">
+      <c r="L371" s="24"/>
+      <c r="M371" s="24"/>
+    </row>
+    <row r="372">
+      <c r="L372" s="24"/>
+      <c r="M372" s="24"/>
+    </row>
+    <row r="373">
+      <c r="L373" s="24"/>
+      <c r="M373" s="24"/>
+    </row>
+    <row r="374">
+      <c r="L374" s="24"/>
+      <c r="M374" s="24"/>
+    </row>
+    <row r="375">
+      <c r="L375" s="24"/>
+      <c r="M375" s="24"/>
+    </row>
+    <row r="376">
+      <c r="L376" s="24"/>
+      <c r="M376" s="24"/>
+    </row>
+    <row r="377">
+      <c r="L377" s="24"/>
+      <c r="M377" s="24"/>
+    </row>
+    <row r="378">
+      <c r="L378" s="24"/>
+      <c r="M378" s="24"/>
+    </row>
+    <row r="379">
+      <c r="L379" s="24"/>
+      <c r="M379" s="24"/>
+    </row>
+    <row r="380">
+      <c r="L380" s="24"/>
+      <c r="M380" s="24"/>
+    </row>
+    <row r="381">
+      <c r="L381" s="24"/>
+      <c r="M381" s="24"/>
+    </row>
+    <row r="382">
+      <c r="L382" s="24"/>
+      <c r="M382" s="24"/>
+    </row>
+    <row r="383">
+      <c r="L383" s="24"/>
+      <c r="M383" s="24"/>
+    </row>
+    <row r="384">
+      <c r="L384" s="24"/>
+      <c r="M384" s="24"/>
+    </row>
+    <row r="385">
+      <c r="L385" s="24"/>
+      <c r="M385" s="24"/>
+    </row>
+    <row r="386">
+      <c r="L386" s="24"/>
+      <c r="M386" s="24"/>
+    </row>
+    <row r="387">
+      <c r="L387" s="24"/>
+      <c r="M387" s="24"/>
+    </row>
+    <row r="388">
+      <c r="L388" s="24"/>
+      <c r="M388" s="24"/>
+    </row>
+    <row r="389">
+      <c r="L389" s="24"/>
+      <c r="M389" s="24"/>
+    </row>
+    <row r="390">
+      <c r="L390" s="24"/>
+      <c r="M390" s="24"/>
+    </row>
+    <row r="391">
+      <c r="L391" s="24"/>
+      <c r="M391" s="24"/>
+    </row>
+    <row r="392">
+      <c r="L392" s="24"/>
+      <c r="M392" s="24"/>
+    </row>
+    <row r="393">
+      <c r="L393" s="24"/>
+      <c r="M393" s="24"/>
+    </row>
+    <row r="394">
+      <c r="L394" s="24"/>
+      <c r="M394" s="24"/>
+    </row>
+    <row r="395">
+      <c r="L395" s="24"/>
+      <c r="M395" s="24"/>
+    </row>
+    <row r="396">
+      <c r="L396" s="24"/>
+      <c r="M396" s="24"/>
+    </row>
+    <row r="397">
+      <c r="L397" s="24"/>
+      <c r="M397" s="24"/>
+    </row>
+    <row r="398">
+      <c r="L398" s="24"/>
+      <c r="M398" s="24"/>
+    </row>
+    <row r="399">
+      <c r="L399" s="24"/>
+      <c r="M399" s="24"/>
+    </row>
+    <row r="400">
+      <c r="L400" s="24"/>
+      <c r="M400" s="24"/>
+    </row>
+    <row r="401">
+      <c r="L401" s="24"/>
+      <c r="M401" s="24"/>
+    </row>
+    <row r="402">
+      <c r="L402" s="24"/>
+      <c r="M402" s="24"/>
+    </row>
+    <row r="403">
+      <c r="L403" s="24"/>
+      <c r="M403" s="24"/>
+    </row>
+    <row r="404">
+      <c r="L404" s="24"/>
+      <c r="M404" s="24"/>
+    </row>
+    <row r="405">
+      <c r="L405" s="24"/>
+      <c r="M405" s="24"/>
+    </row>
+    <row r="406">
+      <c r="L406" s="24"/>
+      <c r="M406" s="24"/>
+    </row>
+    <row r="407">
+      <c r="L407" s="24"/>
+      <c r="M407" s="24"/>
+    </row>
+    <row r="408">
+      <c r="L408" s="24"/>
+      <c r="M408" s="24"/>
+    </row>
+    <row r="409">
+      <c r="L409" s="24"/>
+      <c r="M409" s="24"/>
+    </row>
+    <row r="410">
+      <c r="L410" s="24"/>
+      <c r="M410" s="24"/>
+    </row>
+    <row r="411">
+      <c r="L411" s="24"/>
+      <c r="M411" s="24"/>
+    </row>
+    <row r="412">
+      <c r="L412" s="24"/>
+      <c r="M412" s="24"/>
+    </row>
+    <row r="413">
+      <c r="L413" s="24"/>
+      <c r="M413" s="24"/>
+    </row>
+    <row r="414">
+      <c r="L414" s="24"/>
+      <c r="M414" s="24"/>
+    </row>
+    <row r="415">
+      <c r="L415" s="24"/>
+      <c r="M415" s="24"/>
+    </row>
+    <row r="416">
+      <c r="L416" s="24"/>
+      <c r="M416" s="24"/>
+    </row>
+    <row r="417">
+      <c r="L417" s="24"/>
+      <c r="M417" s="24"/>
+    </row>
+    <row r="418">
+      <c r="L418" s="24"/>
+      <c r="M418" s="24"/>
+    </row>
+    <row r="419">
+      <c r="L419" s="24"/>
+      <c r="M419" s="24"/>
+    </row>
+    <row r="420">
+      <c r="L420" s="24"/>
+      <c r="M420" s="24"/>
+    </row>
+    <row r="421">
+      <c r="L421" s="24"/>
+      <c r="M421" s="24"/>
+    </row>
+    <row r="422">
+      <c r="L422" s="24"/>
+      <c r="M422" s="24"/>
+    </row>
+    <row r="423">
+      <c r="L423" s="24"/>
+      <c r="M423" s="24"/>
+    </row>
+    <row r="424">
+      <c r="L424" s="24"/>
+      <c r="M424" s="24"/>
+    </row>
+    <row r="425">
+      <c r="L425" s="24"/>
+      <c r="M425" s="24"/>
+    </row>
+    <row r="426">
+      <c r="L426" s="24"/>
+      <c r="M426" s="24"/>
+    </row>
+    <row r="427">
+      <c r="L427" s="24"/>
+      <c r="M427" s="24"/>
+    </row>
+    <row r="428">
+      <c r="L428" s="24"/>
+      <c r="M428" s="24"/>
+    </row>
+    <row r="429">
+      <c r="L429" s="24"/>
+      <c r="M429" s="24"/>
+    </row>
+    <row r="430">
+      <c r="L430" s="24"/>
+      <c r="M430" s="24"/>
+    </row>
+    <row r="431">
+      <c r="L431" s="24"/>
+      <c r="M431" s="24"/>
+    </row>
+    <row r="432">
+      <c r="L432" s="24"/>
+      <c r="M432" s="24"/>
+    </row>
+    <row r="433">
+      <c r="L433" s="24"/>
+      <c r="M433" s="24"/>
+    </row>
+    <row r="434">
+      <c r="L434" s="24"/>
+      <c r="M434" s="24"/>
+    </row>
+    <row r="435">
+      <c r="L435" s="24"/>
+      <c r="M435" s="24"/>
+    </row>
+    <row r="436">
+      <c r="L436" s="24"/>
+      <c r="M436" s="24"/>
+    </row>
+    <row r="437">
+      <c r="L437" s="24"/>
+      <c r="M437" s="24"/>
+    </row>
+    <row r="438">
+      <c r="L438" s="24"/>
+      <c r="M438" s="24"/>
+    </row>
+    <row r="439">
+      <c r="L439" s="24"/>
+      <c r="M439" s="24"/>
+    </row>
+    <row r="440">
+      <c r="L440" s="24"/>
+      <c r="M440" s="24"/>
+    </row>
+    <row r="441">
+      <c r="L441" s="24"/>
+      <c r="M441" s="24"/>
+    </row>
+    <row r="442">
+      <c r="L442" s="24"/>
+      <c r="M442" s="24"/>
+    </row>
+    <row r="443">
+      <c r="L443" s="24"/>
+      <c r="M443" s="24"/>
+    </row>
+    <row r="444">
+      <c r="L444" s="24"/>
+      <c r="M444" s="24"/>
+    </row>
+    <row r="445">
+      <c r="L445" s="24"/>
+      <c r="M445" s="24"/>
+    </row>
+    <row r="446">
+      <c r="L446" s="24"/>
+      <c r="M446" s="24"/>
+    </row>
+    <row r="447">
+      <c r="L447" s="24"/>
+      <c r="M447" s="24"/>
+    </row>
+    <row r="448">
+      <c r="L448" s="24"/>
+      <c r="M448" s="24"/>
+    </row>
+    <row r="449">
+      <c r="L449" s="24"/>
+      <c r="M449" s="24"/>
+    </row>
+    <row r="450">
+      <c r="L450" s="24"/>
+      <c r="M450" s="24"/>
+    </row>
+    <row r="451">
+      <c r="L451" s="24"/>
+      <c r="M451" s="24"/>
+    </row>
+    <row r="452">
+      <c r="L452" s="24"/>
+      <c r="M452" s="24"/>
+    </row>
+    <row r="453">
+      <c r="L453" s="24"/>
+      <c r="M453" s="24"/>
+    </row>
+    <row r="454">
+      <c r="L454" s="24"/>
+      <c r="M454" s="24"/>
+    </row>
+    <row r="455">
+      <c r="L455" s="24"/>
+      <c r="M455" s="24"/>
+    </row>
+    <row r="456">
+      <c r="L456" s="24"/>
+      <c r="M456" s="24"/>
+    </row>
+    <row r="457">
+      <c r="L457" s="24"/>
+      <c r="M457" s="24"/>
+    </row>
+    <row r="458">
+      <c r="L458" s="24"/>
+      <c r="M458" s="24"/>
+    </row>
+    <row r="459">
+      <c r="L459" s="24"/>
+      <c r="M459" s="24"/>
+    </row>
+    <row r="460">
+      <c r="L460" s="24"/>
+      <c r="M460" s="24"/>
+    </row>
+    <row r="461">
+      <c r="L461" s="24"/>
+      <c r="M461" s="24"/>
+    </row>
+    <row r="462">
+      <c r="L462" s="24"/>
+      <c r="M462" s="24"/>
+    </row>
+    <row r="463">
+      <c r="L463" s="24"/>
+      <c r="M463" s="24"/>
+    </row>
+    <row r="464">
+      <c r="L464" s="24"/>
+      <c r="M464" s="24"/>
+    </row>
+    <row r="465">
+      <c r="L465" s="24"/>
+      <c r="M465" s="24"/>
+    </row>
+    <row r="466">
+      <c r="L466" s="24"/>
+      <c r="M466" s="24"/>
+    </row>
+    <row r="467">
+      <c r="L467" s="24"/>
+      <c r="M467" s="24"/>
+    </row>
+    <row r="468">
+      <c r="L468" s="24"/>
+      <c r="M468" s="24"/>
+    </row>
+    <row r="469">
+      <c r="L469" s="24"/>
+      <c r="M469" s="24"/>
+    </row>
+    <row r="470">
+      <c r="L470" s="24"/>
+      <c r="M470" s="24"/>
+    </row>
+    <row r="471">
+      <c r="L471" s="24"/>
+      <c r="M471" s="24"/>
+    </row>
+    <row r="472">
+      <c r="L472" s="24"/>
+      <c r="M472" s="24"/>
+    </row>
+    <row r="473">
+      <c r="L473" s="24"/>
+      <c r="M473" s="24"/>
+    </row>
+    <row r="474">
+      <c r="L474" s="24"/>
+      <c r="M474" s="24"/>
+    </row>
+    <row r="475">
+      <c r="L475" s="24"/>
+      <c r="M475" s="24"/>
+    </row>
+    <row r="476">
+      <c r="L476" s="24"/>
+      <c r="M476" s="24"/>
+    </row>
+    <row r="477">
+      <c r="L477" s="24"/>
+      <c r="M477" s="24"/>
+    </row>
+    <row r="478">
+      <c r="L478" s="24"/>
+      <c r="M478" s="24"/>
+    </row>
+    <row r="479">
+      <c r="L479" s="24"/>
+      <c r="M479" s="24"/>
+    </row>
+    <row r="480">
+      <c r="L480" s="24"/>
+      <c r="M480" s="24"/>
+    </row>
+    <row r="481">
+      <c r="L481" s="24"/>
+      <c r="M481" s="24"/>
+    </row>
+    <row r="482">
+      <c r="L482" s="24"/>
+      <c r="M482" s="24"/>
+    </row>
+    <row r="483">
+      <c r="L483" s="24"/>
+      <c r="M483" s="24"/>
+    </row>
+    <row r="484">
+      <c r="L484" s="24"/>
+      <c r="M484" s="24"/>
+    </row>
+    <row r="485">
+      <c r="L485" s="24"/>
+      <c r="M485" s="24"/>
+    </row>
+    <row r="486">
+      <c r="L486" s="24"/>
+      <c r="M486" s="24"/>
+    </row>
+    <row r="487">
+      <c r="L487" s="24"/>
+      <c r="M487" s="24"/>
+    </row>
+    <row r="488">
+      <c r="L488" s="24"/>
+      <c r="M488" s="24"/>
+    </row>
+    <row r="489">
+      <c r="L489" s="24"/>
+      <c r="M489" s="24"/>
+    </row>
+    <row r="490">
+      <c r="L490" s="24"/>
+      <c r="M490" s="24"/>
+    </row>
+    <row r="491">
+      <c r="L491" s="24"/>
+      <c r="M491" s="24"/>
+    </row>
+    <row r="492">
+      <c r="L492" s="24"/>
+      <c r="M492" s="24"/>
+    </row>
+    <row r="493">
+      <c r="L493" s="24"/>
+      <c r="M493" s="24"/>
+    </row>
+    <row r="494">
+      <c r="L494" s="24"/>
+      <c r="M494" s="24"/>
+    </row>
+    <row r="495">
+      <c r="L495" s="24"/>
+      <c r="M495" s="24"/>
+    </row>
+    <row r="496">
+      <c r="L496" s="24"/>
+      <c r="M496" s="24"/>
+    </row>
+    <row r="497">
+      <c r="L497" s="24"/>
+      <c r="M497" s="24"/>
+    </row>
+    <row r="498">
+      <c r="L498" s="24"/>
+      <c r="M498" s="24"/>
+    </row>
+    <row r="499">
+      <c r="L499" s="24"/>
+      <c r="M499" s="24"/>
+    </row>
+    <row r="500">
+      <c r="L500" s="24"/>
+      <c r="M500" s="24"/>
+    </row>
+    <row r="501">
+      <c r="L501" s="24"/>
+      <c r="M501" s="24"/>
+    </row>
+    <row r="502">
+      <c r="L502" s="24"/>
+      <c r="M502" s="24"/>
+    </row>
+    <row r="503">
+      <c r="L503" s="24"/>
+      <c r="M503" s="24"/>
+    </row>
+    <row r="504">
+      <c r="L504" s="24"/>
+      <c r="M504" s="24"/>
+    </row>
+    <row r="505">
+      <c r="L505" s="24"/>
+      <c r="M505" s="24"/>
+    </row>
+    <row r="506">
+      <c r="L506" s="24"/>
+      <c r="M506" s="24"/>
+    </row>
+    <row r="507">
+      <c r="L507" s="24"/>
+      <c r="M507" s="24"/>
+    </row>
+    <row r="508">
+      <c r="L508" s="24"/>
+      <c r="M508" s="24"/>
+    </row>
+    <row r="509">
+      <c r="L509" s="24"/>
+      <c r="M509" s="24"/>
+    </row>
+    <row r="510">
+      <c r="L510" s="24"/>
+      <c r="M510" s="24"/>
+    </row>
+    <row r="511">
+      <c r="L511" s="24"/>
+      <c r="M511" s="24"/>
+    </row>
+    <row r="512">
+      <c r="L512" s="24"/>
+      <c r="M512" s="24"/>
+    </row>
+    <row r="513">
+      <c r="L513" s="24"/>
+      <c r="M513" s="24"/>
+    </row>
+    <row r="514">
+      <c r="L514" s="24"/>
+      <c r="M514" s="24"/>
+    </row>
+    <row r="515">
+      <c r="L515" s="24"/>
+      <c r="M515" s="24"/>
+    </row>
+    <row r="516">
+      <c r="L516" s="24"/>
+      <c r="M516" s="24"/>
+    </row>
+    <row r="517">
+      <c r="L517" s="24"/>
+      <c r="M517" s="24"/>
+    </row>
+    <row r="518">
+      <c r="L518" s="24"/>
+      <c r="M518" s="24"/>
+    </row>
+    <row r="519">
+      <c r="L519" s="24"/>
+      <c r="M519" s="24"/>
+    </row>
+    <row r="520">
+      <c r="L520" s="24"/>
+      <c r="M520" s="24"/>
+    </row>
+    <row r="521">
+      <c r="L521" s="24"/>
+      <c r="M521" s="24"/>
+    </row>
+    <row r="522">
+      <c r="L522" s="24"/>
+      <c r="M522" s="24"/>
+    </row>
+    <row r="523">
+      <c r="L523" s="24"/>
+      <c r="M523" s="24"/>
+    </row>
+    <row r="524">
+      <c r="L524" s="24"/>
+      <c r="M524" s="24"/>
+    </row>
+    <row r="525">
+      <c r="L525" s="24"/>
+      <c r="M525" s="24"/>
+    </row>
+    <row r="526">
+      <c r="L526" s="24"/>
+      <c r="M526" s="24"/>
+    </row>
+    <row r="527">
+      <c r="L527" s="24"/>
+      <c r="M527" s="24"/>
+    </row>
+    <row r="528">
+      <c r="L528" s="24"/>
+      <c r="M528" s="24"/>
+    </row>
+    <row r="529">
+      <c r="L529" s="24"/>
+      <c r="M529" s="24"/>
+    </row>
+    <row r="530">
+      <c r="L530" s="24"/>
+      <c r="M530" s="24"/>
+    </row>
+    <row r="531">
+      <c r="L531" s="24"/>
+      <c r="M531" s="24"/>
+    </row>
+    <row r="532">
+      <c r="L532" s="24"/>
+      <c r="M532" s="24"/>
+    </row>
+    <row r="533">
+      <c r="L533" s="24"/>
+      <c r="M533" s="24"/>
+    </row>
+    <row r="534">
+      <c r="L534" s="24"/>
+      <c r="M534" s="24"/>
+    </row>
+    <row r="535">
+      <c r="L535" s="24"/>
+      <c r="M535" s="24"/>
+    </row>
+    <row r="536">
+      <c r="L536" s="24"/>
+      <c r="M536" s="24"/>
+    </row>
+    <row r="537">
+      <c r="L537" s="24"/>
+      <c r="M537" s="24"/>
+    </row>
+    <row r="538">
+      <c r="L538" s="24"/>
+      <c r="M538" s="24"/>
+    </row>
+    <row r="539">
+      <c r="L539" s="24"/>
+      <c r="M539" s="24"/>
+    </row>
+    <row r="540">
+      <c r="L540" s="24"/>
+      <c r="M540" s="24"/>
+    </row>
+    <row r="541">
+      <c r="L541" s="24"/>
+      <c r="M541" s="24"/>
+    </row>
+    <row r="542">
+      <c r="L542" s="24"/>
+      <c r="M542" s="24"/>
+    </row>
+    <row r="543">
+      <c r="L543" s="24"/>
+      <c r="M543" s="24"/>
+    </row>
+    <row r="544">
+      <c r="L544" s="24"/>
+      <c r="M544" s="24"/>
+    </row>
+    <row r="545">
+      <c r="L545" s="24"/>
+      <c r="M545" s="24"/>
+    </row>
+    <row r="546">
+      <c r="L546" s="24"/>
+      <c r="M546" s="24"/>
+    </row>
+    <row r="547">
+      <c r="L547" s="24"/>
+      <c r="M547" s="24"/>
+    </row>
+    <row r="548">
+      <c r="L548" s="24"/>
+      <c r="M548" s="24"/>
+    </row>
+    <row r="549">
+      <c r="L549" s="24"/>
+      <c r="M549" s="24"/>
+    </row>
+    <row r="550">
+      <c r="L550" s="24"/>
+      <c r="M550" s="24"/>
+    </row>
+    <row r="551">
+      <c r="L551" s="24"/>
+      <c r="M551" s="24"/>
+    </row>
+    <row r="552">
+      <c r="L552" s="24"/>
+      <c r="M552" s="24"/>
+    </row>
+    <row r="553">
+      <c r="L553" s="24"/>
+      <c r="M553" s="24"/>
+    </row>
+    <row r="554">
+      <c r="L554" s="24"/>
+      <c r="M554" s="24"/>
+    </row>
+    <row r="555">
+      <c r="L555" s="24"/>
+      <c r="M555" s="24"/>
+    </row>
+    <row r="556">
+      <c r="L556" s="24"/>
+      <c r="M556" s="24"/>
+    </row>
+    <row r="557">
+      <c r="L557" s="24"/>
+      <c r="M557" s="24"/>
+    </row>
+    <row r="558">
+      <c r="L558" s="24"/>
+      <c r="M558" s="24"/>
+    </row>
+    <row r="559">
+      <c r="L559" s="24"/>
+      <c r="M559" s="24"/>
+    </row>
+    <row r="560">
+      <c r="L560" s="24"/>
+      <c r="M560" s="24"/>
+    </row>
+    <row r="561">
+      <c r="L561" s="24"/>
+      <c r="M561" s="24"/>
+    </row>
+    <row r="562">
+      <c r="L562" s="24"/>
+      <c r="M562" s="24"/>
+    </row>
+    <row r="563">
+      <c r="L563" s="24"/>
+      <c r="M563" s="24"/>
+    </row>
+    <row r="564">
+      <c r="L564" s="24"/>
+      <c r="M564" s="24"/>
+    </row>
+    <row r="565">
+      <c r="L565" s="24"/>
+      <c r="M565" s="24"/>
+    </row>
+    <row r="566">
+      <c r="L566" s="24"/>
+      <c r="M566" s="24"/>
+    </row>
+    <row r="567">
+      <c r="L567" s="24"/>
+      <c r="M567" s="24"/>
+    </row>
+    <row r="568">
+      <c r="L568" s="24"/>
+      <c r="M568" s="24"/>
+    </row>
+    <row r="569">
+      <c r="L569" s="24"/>
+      <c r="M569" s="24"/>
+    </row>
+    <row r="570">
+      <c r="L570" s="24"/>
+      <c r="M570" s="24"/>
+    </row>
+    <row r="571">
+      <c r="L571" s="24"/>
+      <c r="M571" s="24"/>
+    </row>
+    <row r="572">
+      <c r="L572" s="24"/>
+      <c r="M572" s="24"/>
+    </row>
+    <row r="573">
+      <c r="L573" s="24"/>
+      <c r="M573" s="24"/>
+    </row>
+    <row r="574">
+      <c r="L574" s="24"/>
+      <c r="M574" s="24"/>
+    </row>
+    <row r="575">
+      <c r="L575" s="24"/>
+      <c r="M575" s="24"/>
+    </row>
+    <row r="576">
+      <c r="L576" s="24"/>
+      <c r="M576" s="24"/>
+    </row>
+    <row r="577">
+      <c r="L577" s="24"/>
+      <c r="M577" s="24"/>
+    </row>
+    <row r="578">
+      <c r="L578" s="24"/>
+      <c r="M578" s="24"/>
+    </row>
+    <row r="579">
+      <c r="L579" s="24"/>
+      <c r="M579" s="24"/>
+    </row>
+    <row r="580">
+      <c r="L580" s="24"/>
+      <c r="M580" s="24"/>
+    </row>
+    <row r="581">
+      <c r="L581" s="24"/>
+      <c r="M581" s="24"/>
+    </row>
+    <row r="582">
+      <c r="L582" s="24"/>
+      <c r="M582" s="24"/>
+    </row>
+    <row r="583">
+      <c r="L583" s="24"/>
+      <c r="M583" s="24"/>
+    </row>
+    <row r="584">
+      <c r="L584" s="24"/>
+      <c r="M584" s="24"/>
+    </row>
+    <row r="585">
+      <c r="L585" s="24"/>
+      <c r="M585" s="24"/>
+    </row>
+    <row r="586">
+      <c r="L586" s="24"/>
+      <c r="M586" s="24"/>
+    </row>
+    <row r="587">
+      <c r="L587" s="24"/>
+      <c r="M587" s="24"/>
+    </row>
+    <row r="588">
+      <c r="L588" s="24"/>
+      <c r="M588" s="24"/>
+    </row>
+    <row r="589">
+      <c r="L589" s="24"/>
+      <c r="M589" s="24"/>
+    </row>
+    <row r="590">
+      <c r="L590" s="24"/>
+      <c r="M590" s="24"/>
+    </row>
+    <row r="591">
+      <c r="L591" s="24"/>
+      <c r="M591" s="24"/>
+    </row>
+    <row r="592">
+      <c r="L592" s="24"/>
+      <c r="M592" s="24"/>
+    </row>
+    <row r="593">
+      <c r="L593" s="24"/>
+      <c r="M593" s="24"/>
+    </row>
+    <row r="594">
+      <c r="L594" s="24"/>
+      <c r="M594" s="24"/>
+    </row>
+    <row r="595">
+      <c r="L595" s="24"/>
+      <c r="M595" s="24"/>
+    </row>
+    <row r="596">
+      <c r="L596" s="24"/>
+      <c r="M596" s="24"/>
+    </row>
+    <row r="597">
+      <c r="L597" s="24"/>
+      <c r="M597" s="24"/>
+    </row>
+    <row r="598">
+      <c r="L598" s="24"/>
+      <c r="M598" s="24"/>
+    </row>
+    <row r="599">
+      <c r="L599" s="24"/>
+      <c r="M599" s="24"/>
+    </row>
+    <row r="600">
+      <c r="L600" s="24"/>
+      <c r="M600" s="24"/>
+    </row>
+    <row r="601">
+      <c r="L601" s="24"/>
+      <c r="M601" s="24"/>
+    </row>
+    <row r="602">
+      <c r="L602" s="24"/>
+      <c r="M602" s="24"/>
+    </row>
+    <row r="603">
+      <c r="L603" s="24"/>
+      <c r="M603" s="24"/>
+    </row>
+    <row r="604">
+      <c r="L604" s="24"/>
+      <c r="M604" s="24"/>
+    </row>
+    <row r="605">
+      <c r="L605" s="24"/>
+      <c r="M605" s="24"/>
+    </row>
+    <row r="606">
+      <c r="L606" s="24"/>
+      <c r="M606" s="24"/>
+    </row>
+    <row r="607">
+      <c r="L607" s="24"/>
+      <c r="M607" s="24"/>
+    </row>
+    <row r="608">
+      <c r="L608" s="24"/>
+      <c r="M608" s="24"/>
+    </row>
+    <row r="609">
+      <c r="L609" s="24"/>
+      <c r="M609" s="24"/>
+    </row>
+    <row r="610">
+      <c r="L610" s="24"/>
+      <c r="M610" s="24"/>
+    </row>
+    <row r="611">
+      <c r="L611" s="24"/>
+      <c r="M611" s="24"/>
+    </row>
+    <row r="612">
+      <c r="L612" s="24"/>
+      <c r="M612" s="24"/>
+    </row>
+    <row r="613">
+      <c r="L613" s="24"/>
+      <c r="M613" s="24"/>
+    </row>
+    <row r="614">
+      <c r="L614" s="24"/>
+      <c r="M614" s="24"/>
+    </row>
+    <row r="615">
+      <c r="L615" s="24"/>
+      <c r="M615" s="24"/>
+    </row>
+    <row r="616">
+      <c r="L616" s="24"/>
+      <c r="M616" s="24"/>
+    </row>
+    <row r="617">
+      <c r="L617" s="24"/>
+      <c r="M617" s="24"/>
+    </row>
+    <row r="618">
+      <c r="L618" s="24"/>
+      <c r="M618" s="24"/>
+    </row>
+    <row r="619">
+      <c r="L619" s="24"/>
+      <c r="M619" s="24"/>
+    </row>
+    <row r="620">
+      <c r="L620" s="24"/>
+      <c r="M620" s="24"/>
+    </row>
+    <row r="621">
+      <c r="L621" s="24"/>
+      <c r="M621" s="24"/>
+    </row>
+    <row r="622">
+      <c r="L622" s="24"/>
+      <c r="M622" s="24"/>
+    </row>
+    <row r="623">
+      <c r="L623" s="24"/>
+      <c r="M623" s="24"/>
+    </row>
+    <row r="624">
+      <c r="L624" s="24"/>
+      <c r="M624" s="24"/>
+    </row>
+    <row r="625">
+      <c r="L625" s="24"/>
+      <c r="M625" s="24"/>
+    </row>
+    <row r="626">
+      <c r="L626" s="24"/>
+      <c r="M626" s="24"/>
+    </row>
+    <row r="627">
+      <c r="L627" s="24"/>
+      <c r="M627" s="24"/>
+    </row>
+    <row r="628">
+      <c r="L628" s="24"/>
+      <c r="M628" s="24"/>
+    </row>
+    <row r="629">
+      <c r="L629" s="24"/>
+      <c r="M629" s="24"/>
+    </row>
+    <row r="630">
+      <c r="L630" s="24"/>
+      <c r="M630" s="24"/>
+    </row>
+    <row r="631">
+      <c r="L631" s="24"/>
+      <c r="M631" s="24"/>
+    </row>
+    <row r="632">
+      <c r="L632" s="24"/>
+      <c r="M632" s="24"/>
+    </row>
+    <row r="633">
+      <c r="L633" s="24"/>
+      <c r="M633" s="24"/>
+    </row>
+    <row r="634">
+      <c r="L634" s="24"/>
+      <c r="M634" s="24"/>
+    </row>
+    <row r="635">
+      <c r="L635" s="24"/>
+      <c r="M635" s="24"/>
+    </row>
+    <row r="636">
+      <c r="L636" s="24"/>
+      <c r="M636" s="24"/>
+    </row>
+    <row r="637">
+      <c r="L637" s="24"/>
+      <c r="M637" s="24"/>
+    </row>
+    <row r="638">
+      <c r="L638" s="24"/>
+      <c r="M638" s="24"/>
+    </row>
+    <row r="639">
+      <c r="L639" s="24"/>
+      <c r="M639" s="24"/>
+    </row>
+    <row r="640">
+      <c r="L640" s="24"/>
+      <c r="M640" s="24"/>
+    </row>
+    <row r="641">
+      <c r="L641" s="24"/>
+      <c r="M641" s="24"/>
+    </row>
+    <row r="642">
+      <c r="L642" s="24"/>
+      <c r="M642" s="24"/>
+    </row>
+    <row r="643">
+      <c r="L643" s="24"/>
+      <c r="M643" s="24"/>
+    </row>
+    <row r="644">
+      <c r="L644" s="24"/>
+      <c r="M644" s="24"/>
+    </row>
+    <row r="645">
+      <c r="L645" s="24"/>
+      <c r="M645" s="24"/>
+    </row>
+    <row r="646">
+      <c r="L646" s="24"/>
+      <c r="M646" s="24"/>
+    </row>
+    <row r="647">
+      <c r="L647" s="24"/>
+      <c r="M647" s="24"/>
+    </row>
+    <row r="648">
+      <c r="L648" s="24"/>
+      <c r="M648" s="24"/>
+    </row>
+    <row r="649">
+      <c r="L649" s="24"/>
+      <c r="M649" s="24"/>
+    </row>
+    <row r="650">
+      <c r="L650" s="24"/>
+      <c r="M650" s="24"/>
+    </row>
+    <row r="651">
+      <c r="L651" s="24"/>
+      <c r="M651" s="24"/>
+    </row>
+    <row r="652">
+      <c r="L652" s="24"/>
+      <c r="M652" s="24"/>
+    </row>
+    <row r="653">
+      <c r="L653" s="24"/>
+      <c r="M653" s="24"/>
+    </row>
+    <row r="654">
+      <c r="L654" s="24"/>
+      <c r="M654" s="24"/>
+    </row>
+    <row r="655">
+      <c r="L655" s="24"/>
+      <c r="M655" s="24"/>
+    </row>
+    <row r="656">
+      <c r="L656" s="24"/>
+      <c r="M656" s="24"/>
+    </row>
+    <row r="657">
+      <c r="L657" s="24"/>
+      <c r="M657" s="24"/>
+    </row>
+    <row r="658">
+      <c r="L658" s="24"/>
+      <c r="M658" s="24"/>
+    </row>
+    <row r="659">
+      <c r="L659" s="24"/>
+      <c r="M659" s="24"/>
+    </row>
+    <row r="660">
+      <c r="L660" s="24"/>
+      <c r="M660" s="24"/>
+    </row>
+    <row r="661">
+      <c r="L661" s="24"/>
+      <c r="M661" s="24"/>
+    </row>
+    <row r="662">
+      <c r="L662" s="24"/>
+      <c r="M662" s="24"/>
+    </row>
+    <row r="663">
+      <c r="L663" s="24"/>
+      <c r="M663" s="24"/>
+    </row>
+    <row r="664">
+      <c r="L664" s="24"/>
+      <c r="M664" s="24"/>
+    </row>
+    <row r="665">
+      <c r="L665" s="24"/>
+      <c r="M665" s="24"/>
+    </row>
+    <row r="666">
+      <c r="L666" s="24"/>
+      <c r="M666" s="24"/>
+    </row>
+    <row r="667">
+      <c r="L667" s="24"/>
+      <c r="M667" s="24"/>
+    </row>
+    <row r="668">
+      <c r="L668" s="24"/>
+      <c r="M668" s="24"/>
+    </row>
+    <row r="669">
+      <c r="L669" s="24"/>
+      <c r="M669" s="24"/>
+    </row>
+    <row r="670">
+      <c r="L670" s="24"/>
+      <c r="M670" s="24"/>
+    </row>
+    <row r="671">
+      <c r="L671" s="24"/>
+      <c r="M671" s="24"/>
+    </row>
+    <row r="672">
+      <c r="L672" s="24"/>
+      <c r="M672" s="24"/>
+    </row>
+    <row r="673">
+      <c r="L673" s="24"/>
+      <c r="M673" s="24"/>
+    </row>
+    <row r="674">
+      <c r="L674" s="24"/>
+      <c r="M674" s="24"/>
+    </row>
+    <row r="675">
+      <c r="L675" s="24"/>
+      <c r="M675" s="24"/>
+    </row>
+    <row r="676">
+      <c r="L676" s="24"/>
+      <c r="M676" s="24"/>
+    </row>
+    <row r="677">
+      <c r="L677" s="24"/>
+      <c r="M677" s="24"/>
+    </row>
+    <row r="678">
+      <c r="L678" s="24"/>
+      <c r="M678" s="24"/>
+    </row>
+    <row r="679">
+      <c r="L679" s="24"/>
+      <c r="M679" s="24"/>
+    </row>
+    <row r="680">
+      <c r="L680" s="24"/>
+      <c r="M680" s="24"/>
+    </row>
+    <row r="681">
+      <c r="L681" s="24"/>
+      <c r="M681" s="24"/>
+    </row>
+    <row r="682">
+      <c r="L682" s="24"/>
+      <c r="M682" s="24"/>
+    </row>
+    <row r="683">
+      <c r="L683" s="24"/>
+      <c r="M683" s="24"/>
+    </row>
+    <row r="684">
+      <c r="L684" s="24"/>
+      <c r="M684" s="24"/>
+    </row>
+    <row r="685">
+      <c r="L685" s="24"/>
+      <c r="M685" s="24"/>
+    </row>
+    <row r="686">
+      <c r="L686" s="24"/>
+      <c r="M686" s="24"/>
+    </row>
+    <row r="687">
+      <c r="L687" s="24"/>
+      <c r="M687" s="24"/>
+    </row>
+    <row r="688">
+      <c r="L688" s="24"/>
+      <c r="M688" s="24"/>
+    </row>
+    <row r="689">
+      <c r="L689" s="24"/>
+      <c r="M689" s="24"/>
+    </row>
+    <row r="690">
+      <c r="L690" s="24"/>
+      <c r="M690" s="24"/>
+    </row>
+    <row r="691">
+      <c r="L691" s="24"/>
+      <c r="M691" s="24"/>
+    </row>
+    <row r="692">
+      <c r="L692" s="24"/>
+      <c r="M692" s="24"/>
+    </row>
+    <row r="693">
+      <c r="L693" s="24"/>
+      <c r="M693" s="24"/>
+    </row>
+    <row r="694">
+      <c r="L694" s="24"/>
+      <c r="M694" s="24"/>
+    </row>
+    <row r="695">
+      <c r="L695" s="24"/>
+      <c r="M695" s="24"/>
+    </row>
+    <row r="696">
+      <c r="L696" s="24"/>
+      <c r="M696" s="24"/>
+    </row>
+    <row r="697">
+      <c r="L697" s="24"/>
+      <c r="M697" s="24"/>
+    </row>
+    <row r="698">
+      <c r="L698" s="24"/>
+      <c r="M698" s="24"/>
+    </row>
+    <row r="699">
+      <c r="L699" s="24"/>
+      <c r="M699" s="24"/>
+    </row>
+    <row r="700">
+      <c r="L700" s="24"/>
+      <c r="M700" s="24"/>
+    </row>
+    <row r="701">
+      <c r="L701" s="24"/>
+      <c r="M701" s="24"/>
+    </row>
+    <row r="702">
+      <c r="L702" s="24"/>
+      <c r="M702" s="24"/>
+    </row>
+    <row r="703">
+      <c r="L703" s="24"/>
+      <c r="M703" s="24"/>
+    </row>
+    <row r="704">
+      <c r="L704" s="24"/>
+      <c r="M704" s="24"/>
+    </row>
+    <row r="705">
+      <c r="L705" s="24"/>
+      <c r="M705" s="24"/>
+    </row>
+    <row r="706">
+      <c r="L706" s="24"/>
+      <c r="M706" s="24"/>
+    </row>
+    <row r="707">
+      <c r="L707" s="24"/>
+      <c r="M707" s="24"/>
+    </row>
+    <row r="708">
+      <c r="L708" s="24"/>
+      <c r="M708" s="24"/>
+    </row>
+    <row r="709">
+      <c r="L709" s="24"/>
+      <c r="M709" s="24"/>
+    </row>
+    <row r="710">
+      <c r="L710" s="24"/>
+      <c r="M710" s="24"/>
+    </row>
+    <row r="711">
+      <c r="L711" s="24"/>
+      <c r="M711" s="24"/>
+    </row>
+    <row r="712">
+      <c r="L712" s="24"/>
+      <c r="M712" s="24"/>
+    </row>
+    <row r="713">
+      <c r="L713" s="24"/>
+      <c r="M713" s="24"/>
+    </row>
+    <row r="714">
+      <c r="L714" s="24"/>
+      <c r="M714" s="24"/>
+    </row>
+    <row r="715">
+      <c r="L715" s="24"/>
+      <c r="M715" s="24"/>
+    </row>
+    <row r="716">
+      <c r="L716" s="24"/>
+      <c r="M716" s="24"/>
+    </row>
+    <row r="717">
+      <c r="L717" s="24"/>
+      <c r="M717" s="24"/>
+    </row>
+    <row r="718">
+      <c r="L718" s="24"/>
+      <c r="M718" s="24"/>
+    </row>
+    <row r="719">
+      <c r="L719" s="24"/>
+      <c r="M719" s="24"/>
+    </row>
+    <row r="720">
+      <c r="L720" s="24"/>
+      <c r="M720" s="24"/>
+    </row>
+    <row r="721">
+      <c r="L721" s="24"/>
+      <c r="M721" s="24"/>
+    </row>
+    <row r="722">
+      <c r="L722" s="24"/>
+      <c r="M722" s="24"/>
+    </row>
+    <row r="723">
+      <c r="L723" s="24"/>
+      <c r="M723" s="24"/>
+    </row>
+    <row r="724">
+      <c r="L724" s="24"/>
+      <c r="M724" s="24"/>
+    </row>
+    <row r="725">
+      <c r="L725" s="24"/>
+      <c r="M725" s="24"/>
+    </row>
+    <row r="726">
+      <c r="L726" s="24"/>
+      <c r="M726" s="24"/>
+    </row>
+    <row r="727">
+      <c r="L727" s="24"/>
+      <c r="M727" s="24"/>
+    </row>
+    <row r="728">
+      <c r="L728" s="24"/>
+      <c r="M728" s="24"/>
+    </row>
+    <row r="729">
+      <c r="L729" s="24"/>
+      <c r="M729" s="24"/>
+    </row>
+    <row r="730">
+      <c r="L730" s="24"/>
+      <c r="M730" s="24"/>
+    </row>
+    <row r="731">
+      <c r="L731" s="24"/>
+      <c r="M731" s="24"/>
+    </row>
+    <row r="732">
+      <c r="L732" s="24"/>
+      <c r="M732" s="24"/>
+    </row>
+    <row r="733">
+      <c r="L733" s="24"/>
+      <c r="M733" s="24"/>
+    </row>
+    <row r="734">
+      <c r="L734" s="24"/>
+      <c r="M734" s="24"/>
+    </row>
+    <row r="735">
+      <c r="L735" s="24"/>
+      <c r="M735" s="24"/>
+    </row>
+    <row r="736">
+      <c r="L736" s="24"/>
+      <c r="M736" s="24"/>
+    </row>
+    <row r="737">
+      <c r="L737" s="24"/>
+      <c r="M737" s="24"/>
+    </row>
+    <row r="738">
+      <c r="L738" s="24"/>
+      <c r="M738" s="24"/>
+    </row>
+    <row r="739">
+      <c r="L739" s="24"/>
+      <c r="M739" s="24"/>
+    </row>
+    <row r="740">
+      <c r="L740" s="24"/>
+      <c r="M740" s="24"/>
+    </row>
+    <row r="741">
+      <c r="L741" s="24"/>
+      <c r="M741" s="24"/>
+    </row>
+    <row r="742">
+      <c r="L742" s="24"/>
+      <c r="M742" s="24"/>
+    </row>
+    <row r="743">
+      <c r="L743" s="24"/>
+      <c r="M743" s="24"/>
+    </row>
+    <row r="744">
+      <c r="L744" s="24"/>
+      <c r="M744" s="24"/>
+    </row>
+    <row r="745">
+      <c r="L745" s="24"/>
+      <c r="M745" s="24"/>
+    </row>
+    <row r="746">
+      <c r="L746" s="24"/>
+      <c r="M746" s="24"/>
+    </row>
+    <row r="747">
+      <c r="L747" s="24"/>
+      <c r="M747" s="24"/>
+    </row>
+    <row r="748">
+      <c r="L748" s="24"/>
+      <c r="M748" s="24"/>
+    </row>
+    <row r="749">
+      <c r="L749" s="24"/>
+      <c r="M749" s="24"/>
+    </row>
+    <row r="750">
+      <c r="L750" s="24"/>
+      <c r="M750" s="24"/>
+    </row>
+    <row r="751">
+      <c r="L751" s="24"/>
+      <c r="M751" s="24"/>
+    </row>
+    <row r="752">
+      <c r="L752" s="24"/>
+      <c r="M752" s="24"/>
+    </row>
+    <row r="753">
+      <c r="L753" s="24"/>
+      <c r="M753" s="24"/>
+    </row>
+    <row r="754">
+      <c r="L754" s="24"/>
+      <c r="M754" s="24"/>
+    </row>
+    <row r="755">
+      <c r="L755" s="24"/>
+      <c r="M755" s="24"/>
+    </row>
+    <row r="756">
+      <c r="L756" s="24"/>
+      <c r="M756" s="24"/>
+    </row>
+    <row r="757">
+      <c r="L757" s="24"/>
+      <c r="M757" s="24"/>
+    </row>
+    <row r="758">
+      <c r="L758" s="24"/>
+      <c r="M758" s="24"/>
+    </row>
+    <row r="759">
+      <c r="L759" s="24"/>
+      <c r="M759" s="24"/>
+    </row>
+    <row r="760">
+      <c r="L760" s="24"/>
+      <c r="M760" s="24"/>
+    </row>
+    <row r="761">
+      <c r="L761" s="24"/>
+      <c r="M761" s="24"/>
+    </row>
+    <row r="762">
+      <c r="L762" s="24"/>
+      <c r="M762" s="24"/>
+    </row>
+    <row r="763">
+      <c r="L763" s="24"/>
+      <c r="M763" s="24"/>
+    </row>
+    <row r="764">
+      <c r="L764" s="24"/>
+      <c r="M764" s="24"/>
+    </row>
+    <row r="765">
+      <c r="L765" s="24"/>
+      <c r="M765" s="24"/>
+    </row>
+    <row r="766">
+      <c r="L766" s="24"/>
+      <c r="M766" s="24"/>
+    </row>
+    <row r="767">
+      <c r="L767" s="24"/>
+      <c r="M767" s="24"/>
+    </row>
+    <row r="768">
+      <c r="L768" s="24"/>
+      <c r="M768" s="24"/>
+    </row>
+    <row r="769">
+      <c r="L769" s="24"/>
+      <c r="M769" s="24"/>
+    </row>
+    <row r="770">
+      <c r="L770" s="24"/>
+      <c r="M770" s="24"/>
+    </row>
+    <row r="771">
+      <c r="L771" s="24"/>
+      <c r="M771" s="24"/>
+    </row>
+    <row r="772">
+      <c r="L772" s="24"/>
+      <c r="M772" s="24"/>
+    </row>
+    <row r="773">
+      <c r="L773" s="24"/>
+      <c r="M773" s="24"/>
+    </row>
+    <row r="774">
+      <c r="L774" s="24"/>
+      <c r="M774" s="24"/>
+    </row>
+    <row r="775">
+      <c r="L775" s="24"/>
+      <c r="M775" s="24"/>
+    </row>
+    <row r="776">
+      <c r="L776" s="24"/>
+      <c r="M776" s="24"/>
+    </row>
+    <row r="777">
+      <c r="L777" s="24"/>
+      <c r="M777" s="24"/>
+    </row>
+    <row r="778">
+      <c r="L778" s="24"/>
+      <c r="M778" s="24"/>
+    </row>
+    <row r="779">
+      <c r="L779" s="24"/>
+      <c r="M779" s="24"/>
+    </row>
+    <row r="780">
+      <c r="L780" s="24"/>
+      <c r="M780" s="24"/>
+    </row>
+    <row r="781">
+      <c r="L781" s="24"/>
+      <c r="M781" s="24"/>
+    </row>
+    <row r="782">
+      <c r="L782" s="24"/>
+      <c r="M782" s="24"/>
+    </row>
+    <row r="783">
+      <c r="L783" s="24"/>
+      <c r="M783" s="24"/>
+    </row>
+    <row r="784">
+      <c r="L784" s="24"/>
+      <c r="M784" s="24"/>
+    </row>
+    <row r="785">
+      <c r="L785" s="24"/>
+      <c r="M785" s="24"/>
+    </row>
+    <row r="786">
+      <c r="L786" s="24"/>
+      <c r="M786" s="24"/>
+    </row>
+    <row r="787">
+      <c r="L787" s="24"/>
+      <c r="M787" s="24"/>
+    </row>
+    <row r="788">
+      <c r="L788" s="24"/>
+      <c r="M788" s="24"/>
+    </row>
+    <row r="789">
+      <c r="L789" s="24"/>
+      <c r="M789" s="24"/>
+    </row>
+    <row r="790">
+      <c r="L790" s="24"/>
+      <c r="M790" s="24"/>
+    </row>
+    <row r="791">
+      <c r="L791" s="24"/>
+      <c r="M791" s="24"/>
+    </row>
+    <row r="792">
+      <c r="L792" s="24"/>
+      <c r="M792" s="24"/>
+    </row>
+    <row r="793">
+      <c r="L793" s="24"/>
+      <c r="M793" s="24"/>
+    </row>
+    <row r="794">
+      <c r="L794" s="24"/>
+      <c r="M794" s="24"/>
+    </row>
+    <row r="795">
+      <c r="L795" s="24"/>
+      <c r="M795" s="24"/>
+    </row>
+    <row r="796">
+      <c r="L796" s="24"/>
+      <c r="M796" s="24"/>
+    </row>
+    <row r="797">
+      <c r="L797" s="24"/>
+      <c r="M797" s="24"/>
+    </row>
+    <row r="798">
+      <c r="L798" s="24"/>
+      <c r="M798" s="24"/>
+    </row>
+    <row r="799">
+      <c r="L799" s="24"/>
+      <c r="M799" s="24"/>
+    </row>
+    <row r="800">
+      <c r="L800" s="24"/>
+      <c r="M800" s="24"/>
+    </row>
+    <row r="801">
+      <c r="L801" s="24"/>
+      <c r="M801" s="24"/>
+    </row>
+    <row r="802">
+      <c r="L802" s="24"/>
+      <c r="M802" s="24"/>
+    </row>
+    <row r="803">
+      <c r="L803" s="24"/>
+      <c r="M803" s="24"/>
+    </row>
+    <row r="804">
+      <c r="L804" s="24"/>
+      <c r="M804" s="24"/>
+    </row>
+    <row r="805">
+      <c r="L805" s="24"/>
+      <c r="M805" s="24"/>
+    </row>
+    <row r="806">
+      <c r="L806" s="24"/>
+      <c r="M806" s="24"/>
+    </row>
+    <row r="807">
+      <c r="L807" s="24"/>
+      <c r="M807" s="24"/>
+    </row>
+    <row r="808">
+      <c r="L808" s="24"/>
+      <c r="M808" s="24"/>
+    </row>
+    <row r="809">
+      <c r="L809" s="24"/>
+      <c r="M809" s="24"/>
+    </row>
+    <row r="810">
+      <c r="L810" s="24"/>
+      <c r="M810" s="24"/>
+    </row>
+    <row r="811">
+      <c r="L811" s="24"/>
+      <c r="M811" s="24"/>
+    </row>
+    <row r="812">
+      <c r="L812" s="24"/>
+      <c r="M812" s="24"/>
+    </row>
+    <row r="813">
+      <c r="L813" s="24"/>
+      <c r="M813" s="24"/>
+    </row>
+    <row r="814">
+      <c r="L814" s="24"/>
+      <c r="M814" s="24"/>
+    </row>
+    <row r="815">
+      <c r="L815" s="24"/>
+      <c r="M815" s="24"/>
+    </row>
+    <row r="816">
+      <c r="L816" s="24"/>
+      <c r="M816" s="24"/>
+    </row>
+    <row r="817">
+      <c r="L817" s="24"/>
+      <c r="M817" s="24"/>
+    </row>
+    <row r="818">
+      <c r="L818" s="24"/>
+      <c r="M818" s="24"/>
+    </row>
+    <row r="819">
+      <c r="L819" s="24"/>
+      <c r="M819" s="24"/>
+    </row>
+    <row r="820">
+      <c r="L820" s="24"/>
+      <c r="M820" s="24"/>
+    </row>
+    <row r="821">
+      <c r="L821" s="24"/>
+      <c r="M821" s="24"/>
+    </row>
+    <row r="822">
+      <c r="L822" s="24"/>
+      <c r="M822" s="24"/>
+    </row>
+    <row r="823">
+      <c r="L823" s="24"/>
+      <c r="M823" s="24"/>
+    </row>
+    <row r="824">
+      <c r="L824" s="24"/>
+      <c r="M824" s="24"/>
+    </row>
+    <row r="825">
+      <c r="L825" s="24"/>
+      <c r="M825" s="24"/>
+    </row>
+    <row r="826">
+      <c r="L826" s="24"/>
+      <c r="M826" s="24"/>
+    </row>
+    <row r="827">
+      <c r="L827" s="24"/>
+      <c r="M827" s="24"/>
+    </row>
+    <row r="828">
+      <c r="L828" s="24"/>
+      <c r="M828" s="24"/>
+    </row>
+    <row r="829">
+      <c r="L829" s="24"/>
+      <c r="M829" s="24"/>
+    </row>
+    <row r="830">
+      <c r="L830" s="24"/>
+      <c r="M830" s="24"/>
+    </row>
+    <row r="831">
+      <c r="L831" s="24"/>
+      <c r="M831" s="24"/>
+    </row>
+    <row r="832">
+      <c r="L832" s="24"/>
+      <c r="M832" s="24"/>
+    </row>
+    <row r="833">
+      <c r="L833" s="24"/>
+      <c r="M833" s="24"/>
+    </row>
+    <row r="834">
+      <c r="L834" s="24"/>
+      <c r="M834" s="24"/>
+    </row>
+    <row r="835">
+      <c r="L835" s="24"/>
+      <c r="M835" s="24"/>
+    </row>
+    <row r="836">
+      <c r="L836" s="24"/>
+      <c r="M836" s="24"/>
+    </row>
+    <row r="837">
+      <c r="L837" s="24"/>
+      <c r="M837" s="24"/>
+    </row>
+    <row r="838">
+      <c r="L838" s="24"/>
+      <c r="M838" s="24"/>
+    </row>
+    <row r="839">
+      <c r="L839" s="24"/>
+      <c r="M839" s="24"/>
+    </row>
+    <row r="840">
+      <c r="L840" s="24"/>
+      <c r="M840" s="24"/>
+    </row>
+    <row r="841">
+      <c r="L841" s="24"/>
+      <c r="M841" s="24"/>
+    </row>
+    <row r="842">
+      <c r="L842" s="24"/>
+      <c r="M842" s="24"/>
+    </row>
+    <row r="843">
+      <c r="L843" s="24"/>
+      <c r="M843" s="24"/>
+    </row>
+    <row r="844">
+      <c r="L844" s="24"/>
+      <c r="M844" s="24"/>
+    </row>
+    <row r="845">
+      <c r="L845" s="24"/>
+      <c r="M845" s="24"/>
+    </row>
+    <row r="846">
+      <c r="L846" s="24"/>
+      <c r="M846" s="24"/>
+    </row>
+    <row r="847">
+      <c r="L847" s="24"/>
+      <c r="M847" s="24"/>
+    </row>
+    <row r="848">
+      <c r="L848" s="24"/>
+      <c r="M848" s="24"/>
+    </row>
+    <row r="849">
+      <c r="L849" s="24"/>
+      <c r="M849" s="24"/>
+    </row>
+    <row r="850">
+      <c r="L850" s="24"/>
+      <c r="M850" s="24"/>
+    </row>
+    <row r="851">
+      <c r="L851" s="24"/>
+      <c r="M851" s="24"/>
+    </row>
+    <row r="852">
+      <c r="L852" s="24"/>
+      <c r="M852" s="24"/>
+    </row>
+    <row r="853">
+      <c r="L853" s="24"/>
+      <c r="M853" s="24"/>
+    </row>
+    <row r="854">
+      <c r="L854" s="24"/>
+      <c r="M854" s="24"/>
+    </row>
+    <row r="855">
+      <c r="L855" s="24"/>
+      <c r="M855" s="24"/>
+    </row>
+    <row r="856">
+      <c r="L856" s="24"/>
+      <c r="M856" s="24"/>
+    </row>
+    <row r="857">
+      <c r="L857" s="24"/>
+      <c r="M857" s="24"/>
+    </row>
+    <row r="858">
+      <c r="L858" s="24"/>
+      <c r="M858" s="24"/>
+    </row>
+    <row r="859">
+      <c r="L859" s="24"/>
+      <c r="M859" s="24"/>
+    </row>
+    <row r="860">
+      <c r="L860" s="24"/>
+      <c r="M860" s="24"/>
+    </row>
+    <row r="861">
+      <c r="L861" s="24"/>
+      <c r="M861" s="24"/>
+    </row>
+    <row r="862">
+      <c r="L862" s="24"/>
+      <c r="M862" s="24"/>
+    </row>
+    <row r="863">
+      <c r="L863" s="24"/>
+      <c r="M863" s="24"/>
+    </row>
+    <row r="864">
+      <c r="L864" s="24"/>
+      <c r="M864" s="24"/>
+    </row>
+    <row r="865">
+      <c r="L865" s="24"/>
+      <c r="M865" s="24"/>
+    </row>
+    <row r="866">
+      <c r="L866" s="24"/>
+      <c r="M866" s="24"/>
+    </row>
+    <row r="867">
+      <c r="L867" s="24"/>
+      <c r="M867" s="24"/>
+    </row>
+    <row r="868">
+      <c r="L868" s="24"/>
+      <c r="M868" s="24"/>
+    </row>
+    <row r="869">
+      <c r="L869" s="24"/>
+      <c r="M869" s="24"/>
+    </row>
+    <row r="870">
+      <c r="L870" s="24"/>
+      <c r="M870" s="24"/>
+    </row>
+    <row r="871">
+      <c r="L871" s="24"/>
+      <c r="M871" s="24"/>
+    </row>
+    <row r="872">
+      <c r="L872" s="24"/>
+      <c r="M872" s="24"/>
+    </row>
+    <row r="873">
+      <c r="L873" s="24"/>
+      <c r="M873" s="24"/>
+    </row>
+    <row r="874">
+      <c r="L874" s="24"/>
+      <c r="M874" s="24"/>
+    </row>
+    <row r="875">
+      <c r="L875" s="24"/>
+      <c r="M875" s="24"/>
+    </row>
+    <row r="876">
+      <c r="L876" s="24"/>
+      <c r="M876" s="24"/>
+    </row>
+    <row r="877">
+      <c r="L877" s="24"/>
+      <c r="M877" s="24"/>
+    </row>
+    <row r="878">
+      <c r="L878" s="24"/>
+      <c r="M878" s="24"/>
+    </row>
+    <row r="879">
+      <c r="L879" s="24"/>
+      <c r="M879" s="24"/>
+    </row>
+    <row r="880">
+      <c r="L880" s="24"/>
+      <c r="M880" s="24"/>
+    </row>
+    <row r="881">
+      <c r="L881" s="24"/>
+      <c r="M881" s="24"/>
+    </row>
+    <row r="882">
+      <c r="L882" s="24"/>
+      <c r="M882" s="24"/>
+    </row>
+    <row r="883">
+      <c r="L883" s="24"/>
+      <c r="M883" s="24"/>
+    </row>
+    <row r="884">
+      <c r="L884" s="24"/>
+      <c r="M884" s="24"/>
+    </row>
+    <row r="885">
+      <c r="L885" s="24"/>
+      <c r="M885" s="24"/>
+    </row>
+    <row r="886">
+      <c r="L886" s="24"/>
+      <c r="M886" s="24"/>
+    </row>
+    <row r="887">
+      <c r="L887" s="24"/>
+      <c r="M887" s="24"/>
+    </row>
+    <row r="888">
+      <c r="L888" s="24"/>
+      <c r="M888" s="24"/>
+    </row>
+    <row r="889">
+      <c r="L889" s="24"/>
+      <c r="M889" s="24"/>
+    </row>
+    <row r="890">
+      <c r="L890" s="24"/>
+      <c r="M890" s="24"/>
+    </row>
+    <row r="891">
+      <c r="L891" s="24"/>
+      <c r="M891" s="24"/>
+    </row>
+    <row r="892">
+      <c r="L892" s="24"/>
+      <c r="M892" s="24"/>
+    </row>
+    <row r="893">
+      <c r="L893" s="24"/>
+      <c r="M893" s="24"/>
+    </row>
+    <row r="894">
+      <c r="L894" s="24"/>
+      <c r="M894" s="24"/>
+    </row>
+    <row r="895">
+      <c r="L895" s="24"/>
+      <c r="M895" s="24"/>
+    </row>
+    <row r="896">
+      <c r="L896" s="24"/>
+      <c r="M896" s="24"/>
+    </row>
+    <row r="897">
+      <c r="L897" s="24"/>
+      <c r="M897" s="24"/>
+    </row>
+    <row r="898">
+      <c r="L898" s="24"/>
+      <c r="M898" s="24"/>
+    </row>
+    <row r="899">
+      <c r="L899" s="24"/>
+      <c r="M899" s="24"/>
+    </row>
+    <row r="900">
+      <c r="L900" s="24"/>
+      <c r="M900" s="24"/>
+    </row>
+    <row r="901">
+      <c r="L901" s="24"/>
+      <c r="M901" s="24"/>
+    </row>
+    <row r="902">
+      <c r="L902" s="24"/>
+      <c r="M902" s="24"/>
+    </row>
+    <row r="903">
+      <c r="L903" s="24"/>
+      <c r="M903" s="24"/>
+    </row>
+    <row r="904">
+      <c r="L904" s="24"/>
+      <c r="M904" s="24"/>
+    </row>
+    <row r="905">
+      <c r="L905" s="24"/>
+      <c r="M905" s="24"/>
+    </row>
+    <row r="906">
+      <c r="L906" s="24"/>
+      <c r="M906" s="24"/>
+    </row>
+    <row r="907">
+      <c r="L907" s="24"/>
+      <c r="M907" s="24"/>
+    </row>
+    <row r="908">
+      <c r="L908" s="24"/>
+      <c r="M908" s="24"/>
+    </row>
+    <row r="909">
+      <c r="L909" s="24"/>
+      <c r="M909" s="24"/>
+    </row>
+    <row r="910">
+      <c r="L910" s="24"/>
+      <c r="M910" s="24"/>
+    </row>
+    <row r="911">
+      <c r="L911" s="24"/>
+      <c r="M911" s="24"/>
+    </row>
+    <row r="912">
+      <c r="L912" s="24"/>
+      <c r="M912" s="24"/>
+    </row>
+    <row r="913">
+      <c r="L913" s="24"/>
+      <c r="M913" s="24"/>
+    </row>
+    <row r="914">
+      <c r="L914" s="24"/>
+      <c r="M914" s="24"/>
+    </row>
+    <row r="915">
+      <c r="L915" s="24"/>
+      <c r="M915" s="24"/>
+    </row>
+    <row r="916">
+      <c r="L916" s="24"/>
+      <c r="M916" s="24"/>
+    </row>
+    <row r="917">
+      <c r="L917" s="24"/>
+      <c r="M917" s="24"/>
+    </row>
+    <row r="918">
+      <c r="L918" s="24"/>
+      <c r="M918" s="24"/>
+    </row>
+    <row r="919">
+      <c r="L919" s="24"/>
+      <c r="M919" s="24"/>
+    </row>
+    <row r="920">
+      <c r="L920" s="24"/>
+      <c r="M920" s="24"/>
+    </row>
+    <row r="921">
+      <c r="L921" s="24"/>
+      <c r="M921" s="24"/>
+    </row>
+    <row r="922">
+      <c r="L922" s="24"/>
+      <c r="M922" s="24"/>
+    </row>
+    <row r="923">
+      <c r="L923" s="24"/>
+      <c r="M923" s="24"/>
+    </row>
+    <row r="924">
+      <c r="L924" s="24"/>
+      <c r="M924" s="24"/>
+    </row>
+    <row r="925">
+      <c r="L925" s="24"/>
+      <c r="M925" s="24"/>
+    </row>
+    <row r="926">
+      <c r="L926" s="24"/>
+      <c r="M926" s="24"/>
+    </row>
+    <row r="927">
+      <c r="L927" s="24"/>
+      <c r="M927" s="24"/>
+    </row>
+    <row r="928">
+      <c r="L928" s="24"/>
+      <c r="M928" s="24"/>
+    </row>
+    <row r="929">
+      <c r="L929" s="24"/>
+      <c r="M929" s="24"/>
+    </row>
+    <row r="930">
+      <c r="L930" s="24"/>
+      <c r="M930" s="24"/>
+    </row>
+    <row r="931">
+      <c r="L931" s="24"/>
+      <c r="M931" s="24"/>
+    </row>
+    <row r="932">
+      <c r="L932" s="24"/>
+      <c r="M932" s="24"/>
+    </row>
+    <row r="933">
+      <c r="L933" s="24"/>
+      <c r="M933" s="24"/>
+    </row>
+    <row r="934">
+      <c r="L934" s="24"/>
+      <c r="M934" s="24"/>
+    </row>
+    <row r="935">
+      <c r="L935" s="24"/>
+      <c r="M935" s="24"/>
+    </row>
+    <row r="936">
+      <c r="L936" s="24"/>
+      <c r="M936" s="24"/>
+    </row>
+    <row r="937">
+      <c r="L937" s="24"/>
+      <c r="M937" s="24"/>
+    </row>
+    <row r="938">
+      <c r="L938" s="24"/>
+      <c r="M938" s="24"/>
+    </row>
+    <row r="939">
+      <c r="L939" s="24"/>
+      <c r="M939" s="24"/>
+    </row>
+    <row r="940">
+      <c r="L940" s="24"/>
+      <c r="M940" s="24"/>
+    </row>
+    <row r="941">
+      <c r="L941" s="24"/>
+      <c r="M941" s="24"/>
+    </row>
+    <row r="942">
+      <c r="L942" s="24"/>
+      <c r="M942" s="24"/>
+    </row>
+    <row r="943">
+      <c r="L943" s="24"/>
+      <c r="M943" s="24"/>
+    </row>
+    <row r="944">
+      <c r="L944" s="24"/>
+      <c r="M944" s="24"/>
+    </row>
+    <row r="945">
+      <c r="L945" s="24"/>
+      <c r="M945" s="24"/>
+    </row>
+    <row r="946">
+      <c r="L946" s="24"/>
+      <c r="M946" s="24"/>
+    </row>
+    <row r="947">
+      <c r="L947" s="24"/>
+      <c r="M947" s="24"/>
+    </row>
+    <row r="948">
+      <c r="L948" s="24"/>
+      <c r="M948" s="24"/>
+    </row>
+    <row r="949">
+      <c r="L949" s="24"/>
+      <c r="M949" s="24"/>
+    </row>
+    <row r="950">
+      <c r="L950" s="24"/>
+      <c r="M950" s="24"/>
+    </row>
+    <row r="951">
+      <c r="L951" s="24"/>
+      <c r="M951" s="24"/>
+    </row>
+    <row r="952">
+      <c r="L952" s="24"/>
+      <c r="M952" s="24"/>
+    </row>
+    <row r="953">
+      <c r="L953" s="24"/>
+      <c r="M953" s="24"/>
+    </row>
+    <row r="954">
+      <c r="L954" s="24"/>
+      <c r="M954" s="24"/>
+    </row>
+    <row r="955">
+      <c r="L955" s="24"/>
+      <c r="M955" s="24"/>
+    </row>
+    <row r="956">
+      <c r="L956" s="24"/>
+      <c r="M956" s="24"/>
+    </row>
+    <row r="957">
+      <c r="L957" s="24"/>
+      <c r="M957" s="24"/>
+    </row>
+    <row r="958">
+      <c r="L958" s="24"/>
+      <c r="M958" s="24"/>
+    </row>
+    <row r="959">
+      <c r="L959" s="24"/>
+      <c r="M959" s="24"/>
+    </row>
+    <row r="960">
+      <c r="L960" s="24"/>
+      <c r="M960" s="24"/>
+    </row>
+    <row r="961">
+      <c r="L961" s="24"/>
+      <c r="M961" s="24"/>
+    </row>
+    <row r="962">
+      <c r="L962" s="24"/>
+      <c r="M962" s="24"/>
+    </row>
+    <row r="963">
+      <c r="L963" s="24"/>
+      <c r="M963" s="24"/>
+    </row>
+    <row r="964">
+      <c r="L964" s="24"/>
+      <c r="M964" s="24"/>
+    </row>
+    <row r="965">
+      <c r="L965" s="24"/>
+      <c r="M965" s="24"/>
+    </row>
+    <row r="966">
+      <c r="L966" s="24"/>
+      <c r="M966" s="24"/>
+    </row>
+    <row r="967">
+      <c r="L967" s="24"/>
+      <c r="M967" s="24"/>
+    </row>
+    <row r="968">
+      <c r="L968" s="24"/>
+      <c r="M968" s="24"/>
+    </row>
+    <row r="969">
+      <c r="L969" s="24"/>
+      <c r="M969" s="24"/>
+    </row>
+    <row r="970">
+      <c r="L970" s="24"/>
+      <c r="M970" s="24"/>
+    </row>
+    <row r="971">
+      <c r="L971" s="24"/>
+      <c r="M971" s="24"/>
+    </row>
+    <row r="972">
+      <c r="L972" s="24"/>
+      <c r="M972" s="24"/>
+    </row>
+    <row r="973">
+      <c r="L973" s="24"/>
+      <c r="M973" s="24"/>
+    </row>
+    <row r="974">
+      <c r="L974" s="24"/>
+      <c r="M974" s="24"/>
+    </row>
+    <row r="975">
+      <c r="L975" s="24"/>
+      <c r="M975" s="24"/>
+    </row>
+    <row r="976">
+      <c r="L976" s="24"/>
+      <c r="M976" s="24"/>
+    </row>
+    <row r="977">
+      <c r="L977" s="24"/>
+      <c r="M977" s="24"/>
+    </row>
+    <row r="978">
+      <c r="L978" s="24"/>
+      <c r="M978" s="24"/>
+    </row>
+    <row r="979">
+      <c r="L979" s="24"/>
+      <c r="M979" s="24"/>
+    </row>
+    <row r="980">
+      <c r="L980" s="24"/>
+      <c r="M980" s="24"/>
+    </row>
+    <row r="981">
+      <c r="L981" s="24"/>
+      <c r="M981" s="24"/>
+    </row>
+    <row r="982">
+      <c r="L982" s="24"/>
+      <c r="M982" s="24"/>
+    </row>
+    <row r="983">
+      <c r="L983" s="24"/>
+      <c r="M983" s="24"/>
+    </row>
+    <row r="984">
+      <c r="L984" s="24"/>
+      <c r="M984" s="24"/>
+    </row>
+    <row r="985">
+      <c r="L985" s="24"/>
+      <c r="M985" s="24"/>
+    </row>
+    <row r="986">
+      <c r="L986" s="24"/>
+      <c r="M986" s="24"/>
+    </row>
+    <row r="987">
+      <c r="L987" s="24"/>
+      <c r="M987" s="24"/>
+    </row>
+    <row r="988">
+      <c r="L988" s="24"/>
+      <c r="M988" s="24"/>
+    </row>
+    <row r="989">
+      <c r="L989" s="24"/>
+      <c r="M989" s="24"/>
+    </row>
+    <row r="990">
+      <c r="L990" s="24"/>
+      <c r="M990" s="24"/>
+    </row>
+    <row r="991">
+      <c r="L991" s="24"/>
+      <c r="M991" s="24"/>
+    </row>
+    <row r="992">
+      <c r="L992" s="24"/>
+      <c r="M992" s="24"/>
+    </row>
+    <row r="993">
+      <c r="L993" s="24"/>
+      <c r="M993" s="24"/>
+    </row>
+    <row r="994">
+      <c r="L994" s="24"/>
+      <c r="M994" s="24"/>
+    </row>
+    <row r="995">
+      <c r="L995" s="24"/>
+      <c r="M995" s="24"/>
+    </row>
+    <row r="996">
+      <c r="L996" s="24"/>
+      <c r="M996" s="24"/>
+    </row>
+    <row r="997">
+      <c r="L997" s="24"/>
+      <c r="M997" s="24"/>
+    </row>
+    <row r="998">
+      <c r="L998" s="24"/>
+      <c r="M998" s="24"/>
+    </row>
+    <row r="999">
+      <c r="L999" s="24"/>
+      <c r="M999" s="24"/>
+    </row>
+    <row r="1000">
+      <c r="L1000" s="24"/>
+      <c r="M1000" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B14:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:C29"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="4">
+      <c r="N4" s="32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>1200</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F5" s="6">
         <v>361.0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" ref="J5:J10" si="1">F5+F11+F17</f>
         <v>1664</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1170</v>
+        <v>1204</v>
       </c>
       <c r="N5" s="10">
         <v>1664.0</v>
@@ -43369,20 +46891,20 @@
     </row>
     <row r="6">
       <c r="D6" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F6" s="6">
         <v>229.0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>1064</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>1172</v>
+        <v>1206</v>
       </c>
       <c r="N6" s="10">
         <v>1064.0</v>
@@ -43396,20 +46918,20 @@
     </row>
     <row r="7">
       <c r="D7" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F7" s="6">
         <v>88.0</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="1"/>
         <v>776</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
       <c r="N7" s="10">
         <v>776.0</v>
@@ -43423,19 +46945,19 @@
     </row>
     <row r="8">
       <c r="C8" s="6" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F8" s="6">
         <v>76.0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
@@ -43446,7 +46968,7 @@
         <v>595</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ref="N8:P8" si="2">SUM(N5:N7)</f>
@@ -43463,36 +46985,36 @@
     </row>
     <row r="9">
       <c r="D9" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F9" s="6">
         <v>50.0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="33">
         <f t="shared" ref="O9:P9" si="3">O8/N8</f>
         <v>0.08219178082</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="33">
         <f t="shared" si="3"/>
         <v>0.4270833333</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F10" s="6">
         <v>17.0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
@@ -43501,22 +47023,22 @@
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F11" s="6">
         <v>241.0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1166</v>
+        <v>1200</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" ref="J11:J13" si="4">F26+F29+F32+F35+F38+F41+F44+F47+F50</f>
@@ -43525,13 +47047,13 @@
     </row>
     <row r="12">
       <c r="D12" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F12" s="6">
         <v>123.0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="4"/>
@@ -43540,13 +47062,13 @@
     </row>
     <row r="13">
       <c r="D13" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F13" s="6">
         <v>143.0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="4"/>
@@ -43555,19 +47077,19 @@
     </row>
     <row r="14">
       <c r="C14" s="6" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="6">
         <v>60.0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1167</v>
+        <v>1201</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" ref="J14:J16" si="5">G26+G29+G32+G35+G38+G41+G44+G47+G50</f>
@@ -43576,13 +47098,13 @@
     </row>
     <row r="15">
       <c r="D15" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F15" s="6">
         <v>19.0</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="5"/>
@@ -43591,13 +47113,13 @@
     </row>
     <row r="16">
       <c r="D16" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F16" s="6">
         <v>26.0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="5"/>
@@ -43606,13 +47128,13 @@
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F17" s="6">
         <v>1062.0</v>
@@ -43620,7 +47142,7 @@
     </row>
     <row r="18">
       <c r="D18" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F18" s="6">
         <v>712.0</v>
@@ -43628,7 +47150,7 @@
     </row>
     <row r="19">
       <c r="D19" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F19" s="6">
         <v>545.0</v>
@@ -43636,10 +47158,10 @@
     </row>
     <row r="20">
       <c r="C20" s="6" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F20" s="6">
         <v>168.0</v>
@@ -43647,7 +47169,7 @@
     </row>
     <row r="21">
       <c r="D21" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F21" s="6">
         <v>97.0</v>
@@ -43655,7 +47177,7 @@
     </row>
     <row r="22">
       <c r="D22" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F22" s="6">
         <v>82.0</v>
@@ -43663,13 +47185,13 @@
     </row>
     <row r="26">
       <c r="B26" s="6" t="s">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F26" s="6">
         <v>9.0</v>
@@ -43680,7 +47202,7 @@
     </row>
     <row r="27">
       <c r="D27" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F27" s="6">
         <v>3.0</v>
@@ -43691,7 +47213,7 @@
     </row>
     <row r="28">
       <c r="D28" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F28" s="6">
         <v>7.0</v>
@@ -43702,10 +47224,10 @@
     </row>
     <row r="29">
       <c r="C29" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F29" s="6">
         <v>17.0</v>
@@ -43716,7 +47238,7 @@
     </row>
     <row r="30">
       <c r="D30" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F30" s="6">
         <v>2.0</v>
@@ -43727,7 +47249,7 @@
     </row>
     <row r="31">
       <c r="D31" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F31" s="6">
         <v>1.0</v>
@@ -43738,10 +47260,10 @@
     </row>
     <row r="32">
       <c r="C32" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F32" s="6">
         <v>23.0</v>
@@ -43752,7 +47274,7 @@
     </row>
     <row r="33">
       <c r="D33" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F33" s="6">
         <v>25.0</v>
@@ -43763,7 +47285,7 @@
     </row>
     <row r="34">
       <c r="D34" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F34" s="6">
         <v>4.0</v>
@@ -43774,13 +47296,13 @@
     </row>
     <row r="35">
       <c r="B35" s="6" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F35" s="6">
         <v>16.0</v>
@@ -43791,7 +47313,7 @@
     </row>
     <row r="36">
       <c r="D36" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F36" s="6">
         <v>3.0</v>
@@ -43802,7 +47324,7 @@
     </row>
     <row r="37">
       <c r="D37" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F37" s="6">
         <v>4.0</v>
@@ -43813,10 +47335,10 @@
     </row>
     <row r="38">
       <c r="C38" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F38" s="6">
         <v>4.0</v>
@@ -43827,7 +47349,7 @@
     </row>
     <row r="39">
       <c r="D39" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F39" s="6">
         <v>1.0</v>
@@ -43838,7 +47360,7 @@
     </row>
     <row r="40">
       <c r="D40" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F40" s="6">
         <v>1.0</v>
@@ -43849,10 +47371,10 @@
     </row>
     <row r="41">
       <c r="C41" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F41" s="6">
         <v>3.0</v>
@@ -43863,7 +47385,7 @@
     </row>
     <row r="42">
       <c r="D42" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F42" s="6">
         <v>0.0</v>
@@ -43874,7 +47396,7 @@
     </row>
     <row r="43">
       <c r="D43" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F43" s="6">
         <v>8.0</v>
@@ -43885,13 +47407,13 @@
     </row>
     <row r="44">
       <c r="B44" s="6" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F44" s="6">
         <v>36.0</v>
@@ -43902,7 +47424,7 @@
     </row>
     <row r="45">
       <c r="D45" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F45" s="6">
         <v>5.0</v>
@@ -43913,7 +47435,7 @@
     </row>
     <row r="46">
       <c r="D46" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F46" s="6">
         <v>15.0</v>
@@ -43924,10 +47446,10 @@
     </row>
     <row r="47">
       <c r="C47" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F47" s="6">
         <v>32.0</v>
@@ -43938,7 +47460,7 @@
     </row>
     <row r="48">
       <c r="D48" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F48" s="6">
         <v>6.0</v>
@@ -43949,7 +47471,7 @@
     </row>
     <row r="49">
       <c r="D49" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F49" s="6">
         <v>7.0</v>
@@ -43960,10 +47482,10 @@
     </row>
     <row r="50">
       <c r="C50" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="F50" s="6">
         <v>36.0</v>
@@ -43971,16 +47493,10 @@
       <c r="G50" s="6">
         <v>10.0</v>
       </c>
-      <c r="O50" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>1183</v>
-      </c>
     </row>
     <row r="51">
       <c r="D51" s="6" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="F51" s="6">
         <v>5.0</v>
@@ -43988,19 +47504,10 @@
       <c r="G51" s="6">
         <v>0.0</v>
       </c>
-      <c r="N51" s="6" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O51" s="6">
-        <v>65.0</v>
-      </c>
-      <c r="P51" s="6">
-        <v>43.0</v>
-      </c>
     </row>
     <row r="52">
       <c r="D52" s="6" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="F52" s="6">
         <v>15.0</v>
@@ -44008,46 +47515,13 @@
       <c r="G52" s="6">
         <v>4.0</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>1185</v>
-      </c>
-      <c r="O52" s="6">
-        <v>89.0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="N53" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O53" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="N54" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O54" s="10">
-        <f t="shared" ref="O54:P54" si="6">SUM(O51:O53)</f>
-        <v>170</v>
-      </c>
-      <c r="P54" s="10">
-        <f t="shared" si="6"/>
-        <v>129</v>
-      </c>
     </row>
     <row r="56">
       <c r="B56" s="6" t="s">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D56" s="6">
         <v>4.0</v>
@@ -44055,7 +47529,7 @@
     </row>
     <row r="57">
       <c r="C57" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D57" s="6">
         <v>6.0</v>
@@ -44063,189 +47537,98 @@
     </row>
     <row r="58">
       <c r="C58" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D58" s="6">
         <v>5.0</v>
       </c>
-      <c r="I58" s="23" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J58" s="6">
-        <v>228.0</v>
-      </c>
-      <c r="K58" s="24">
-        <f t="shared" ref="K58:K68" si="7">J58/$J$68</f>
-        <v>0.7862068966</v>
-      </c>
+      <c r="I58" s="34"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59">
       <c r="B59" s="6" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D59" s="6">
         <v>6.0</v>
       </c>
-      <c r="I59" s="23" t="s">
-        <v>1188</v>
-      </c>
-      <c r="J59" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="K59" s="24">
-        <f t="shared" si="7"/>
-        <v>0.05862068966</v>
-      </c>
+      <c r="I59" s="34"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60">
       <c r="C60" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D60" s="6">
         <v>3.0</v>
       </c>
-      <c r="I60" s="23" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J60" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="K60" s="24">
-        <f t="shared" si="7"/>
-        <v>0.04482758621</v>
-      </c>
+      <c r="I60" s="34"/>
+      <c r="K60" s="35"/>
     </row>
     <row r="61">
       <c r="C61" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D61" s="6">
         <v>3.0</v>
       </c>
-      <c r="I61" s="23" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J61" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="K61" s="24">
-        <f t="shared" si="7"/>
-        <v>0.0275862069</v>
-      </c>
+      <c r="I61" s="34"/>
+      <c r="K61" s="35"/>
     </row>
     <row r="62">
       <c r="B62" s="6" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="D62" s="6">
         <v>24.0</v>
       </c>
-      <c r="I62" s="23" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J62" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="K62" s="24">
-        <f t="shared" si="7"/>
-        <v>0.02413793103</v>
-      </c>
+      <c r="I62" s="34"/>
+      <c r="K62" s="35"/>
     </row>
     <row r="63">
       <c r="C63" s="6" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="D63" s="6">
         <v>23.0</v>
       </c>
-      <c r="I63" s="23" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J63" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="K63" s="24">
-        <f t="shared" si="7"/>
-        <v>0.02413793103</v>
-      </c>
+      <c r="I63" s="34"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64">
       <c r="C64" s="6" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="D64" s="6">
         <v>22.0</v>
       </c>
-      <c r="I64" s="23" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J64" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="K64" s="24">
-        <f t="shared" si="7"/>
-        <v>0.01379310345</v>
-      </c>
+      <c r="I64" s="34"/>
+      <c r="K64" s="35"/>
     </row>
     <row r="65">
       <c r="D65" s="10">
         <f>SUM(D56:D64)</f>
         <v>96</v>
       </c>
-      <c r="I65" s="23" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J65" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="K65" s="24">
-        <f t="shared" si="7"/>
-        <v>0.01034482759</v>
-      </c>
+      <c r="I65" s="34"/>
+      <c r="K65" s="35"/>
     </row>
     <row r="66">
-      <c r="D66" s="22">
+      <c r="D66" s="33">
         <f>D65/207</f>
         <v>0.4637681159</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J66" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="K66" s="24">
-        <f t="shared" si="7"/>
-        <v>0.006896551724</v>
-      </c>
+      <c r="K66" s="35"/>
     </row>
     <row r="67">
-      <c r="I67" s="23" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K67" s="24">
-        <f t="shared" si="7"/>
-        <v>0.003448275862</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="J68" s="10">
-        <f>SUM(J58:J67)</f>
-        <v>290</v>
-      </c>
-      <c r="K68" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+      <c r="I67" s="34"/>
+      <c r="K67" s="35"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
